--- a/public/upload/vitri2/Equipment.xlsx
+++ b/public/upload/vitri2/Equipment.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\pmp\public\upload\vitri2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" activeTab="1"/>
   </bookViews>
@@ -23,7 +18,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'12'!$1:$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'13'!$5:$5</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +33,7 @@
     <author>LEHONGTHAI</author>
   </authors>
   <commentList>
-    <comment ref="E13" authorId="0" shapeId="0">
+    <comment ref="E13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -62,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F13" authorId="0" shapeId="0">
+    <comment ref="F13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -91,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3372" uniqueCount="1440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3372" uniqueCount="1439">
   <si>
     <r>
       <t xml:space="preserve">Kiểu
@@ -6496,9 +6491,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> 0D4</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Buồng cân nguyên liệu 2
 </t>
@@ -11927,7 +11919,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="46" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
@@ -13300,6 +13292,39 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -13342,39 +13367,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -16433,7 +16425,7 @@
         <xdr:cNvPr id="2" name="Picture 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16582,7 +16574,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -16617,7 +16609,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -16794,7 +16786,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -22589,7 +22581,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.4" right="0.1" top="0.5" bottom="0.5" header="0.2" footer="0.2"/>
-  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="66" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Arial,Bold"&amp;10Ref. No.: 070001.07/01&amp;R&amp;"Arial,Regular"&amp;10Page &amp;P/&amp;N</oddFooter>
   </headerFooter>
@@ -22606,10 +22598,10 @@
   <dimension ref="A1:W393"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D126" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="J126" sqref="J126"/>
+      <selection pane="bottomRight" activeCell="J127" sqref="J127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.109375" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -22632,80 +22624,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="271" t="s">
+      <c r="A1" s="258" t="s">
         <v>324</v>
       </c>
-      <c r="B1" s="271"/>
-      <c r="C1" s="271"/>
-      <c r="D1" s="271"/>
-      <c r="E1" s="271"/>
-      <c r="F1" s="271"/>
-      <c r="G1" s="271"/>
-      <c r="H1" s="271"/>
-      <c r="I1" s="271"/>
-      <c r="J1" s="271"/>
-      <c r="K1" s="271"/>
-      <c r="L1" s="271"/>
+      <c r="B1" s="258"/>
+      <c r="C1" s="258"/>
+      <c r="D1" s="258"/>
+      <c r="E1" s="258"/>
+      <c r="F1" s="258"/>
+      <c r="G1" s="258"/>
+      <c r="H1" s="258"/>
+      <c r="I1" s="258"/>
+      <c r="J1" s="258"/>
+      <c r="K1" s="258"/>
+      <c r="L1" s="258"/>
       <c r="M1" s="45"/>
       <c r="N1" s="46"/>
     </row>
     <row r="2" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="272" t="s">
+      <c r="A2" s="259" t="s">
         <v>325</v>
       </c>
-      <c r="B2" s="272"/>
-      <c r="C2" s="272"/>
-      <c r="D2" s="272"/>
-      <c r="E2" s="272"/>
-      <c r="F2" s="272"/>
-      <c r="G2" s="272"/>
-      <c r="H2" s="272"/>
-      <c r="I2" s="272"/>
-      <c r="J2" s="272"/>
-      <c r="K2" s="272"/>
-      <c r="L2" s="272"/>
+      <c r="B2" s="259"/>
+      <c r="C2" s="259"/>
+      <c r="D2" s="259"/>
+      <c r="E2" s="259"/>
+      <c r="F2" s="259"/>
+      <c r="G2" s="259"/>
+      <c r="H2" s="259"/>
+      <c r="I2" s="259"/>
+      <c r="J2" s="259"/>
+      <c r="K2" s="259"/>
+      <c r="L2" s="259"/>
       <c r="M2" s="45"/>
       <c r="N2" s="46"/>
     </row>
     <row r="3" spans="1:14" s="50" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="273" t="s">
+      <c r="A3" s="260" t="s">
         <v>326</v>
       </c>
-      <c r="B3" s="273"/>
-      <c r="C3" s="274" t="s">
+      <c r="B3" s="260"/>
+      <c r="C3" s="261" t="s">
         <v>327</v>
       </c>
-      <c r="D3" s="275"/>
-      <c r="E3" s="275"/>
-      <c r="F3" s="276"/>
+      <c r="D3" s="262"/>
+      <c r="E3" s="262"/>
+      <c r="F3" s="263"/>
       <c r="G3" s="48"/>
-      <c r="H3" s="274" t="s">
+      <c r="H3" s="261" t="s">
         <v>328</v>
       </c>
-      <c r="I3" s="276"/>
-      <c r="J3" s="277"/>
-      <c r="K3" s="278"/>
-      <c r="L3" s="278"/>
-      <c r="M3" s="279"/>
+      <c r="I3" s="263"/>
+      <c r="J3" s="264"/>
+      <c r="K3" s="265"/>
+      <c r="L3" s="265"/>
+      <c r="M3" s="266"/>
       <c r="N3" s="49"/>
     </row>
     <row r="4" spans="1:14" s="52" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="261"/>
-      <c r="B4" s="261"/>
-      <c r="C4" s="261"/>
-      <c r="D4" s="261"/>
-      <c r="E4" s="261"/>
-      <c r="F4" s="261"/>
-      <c r="G4" s="261"/>
-      <c r="H4" s="261"/>
-      <c r="I4" s="261"/>
-      <c r="J4" s="261"/>
-      <c r="K4" s="261"/>
-      <c r="L4" s="261"/>
-      <c r="M4" s="261"/>
+      <c r="A4" s="270"/>
+      <c r="B4" s="270"/>
+      <c r="C4" s="270"/>
+      <c r="D4" s="270"/>
+      <c r="E4" s="270"/>
+      <c r="F4" s="270"/>
+      <c r="G4" s="270"/>
+      <c r="H4" s="270"/>
+      <c r="I4" s="270"/>
+      <c r="J4" s="270"/>
+      <c r="K4" s="270"/>
+      <c r="L4" s="270"/>
+      <c r="M4" s="270"/>
       <c r="N4" s="51"/>
     </row>
-    <row r="5" spans="1:14" s="56" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" s="56" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="53" t="s">
         <v>329</v>
       </c>
@@ -22740,10 +22732,10 @@
       <c r="L5" s="53" t="s">
         <v>339</v>
       </c>
-      <c r="M5" s="262" t="s">
+      <c r="M5" s="271" t="s">
         <v>340</v>
       </c>
-      <c r="N5" s="263"/>
+      <c r="N5" s="272"/>
     </row>
     <row r="6" spans="1:14" s="67" customFormat="1" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="57">
@@ -23517,13 +23509,13 @@
       <c r="E28" s="61"/>
       <c r="F28" s="57"/>
       <c r="G28" s="220"/>
-      <c r="H28" s="264" t="s">
+      <c r="H28" s="273" t="s">
         <v>439</v>
       </c>
-      <c r="I28" s="259" t="s">
+      <c r="I28" s="268" t="s">
         <v>440</v>
       </c>
-      <c r="J28" s="259" t="s">
+      <c r="J28" s="268" t="s">
         <v>441</v>
       </c>
       <c r="K28" s="64"/>
@@ -23550,9 +23542,9 @@
         <v>446</v>
       </c>
       <c r="G29" s="72"/>
-      <c r="H29" s="265"/>
-      <c r="I29" s="267"/>
-      <c r="J29" s="267"/>
+      <c r="H29" s="274"/>
+      <c r="I29" s="276"/>
+      <c r="J29" s="276"/>
       <c r="K29" s="64" t="e">
         <f>IF(OR(#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y"),"Direct impact",IF(AND(#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="Y"),"Indirect impact","No impact"))</f>
         <v>#REF!</v>
@@ -23580,9 +23572,9 @@
         <v>446</v>
       </c>
       <c r="G30" s="72"/>
-      <c r="H30" s="265"/>
-      <c r="I30" s="267"/>
-      <c r="J30" s="267"/>
+      <c r="H30" s="274"/>
+      <c r="I30" s="276"/>
+      <c r="J30" s="276"/>
       <c r="K30" s="64" t="e">
         <f>IF(OR(#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y"),"Direct impact",IF(AND(#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="Y"),"Indirect impact","No impact"))</f>
         <v>#REF!</v>
@@ -23610,9 +23602,9 @@
         <v>446</v>
       </c>
       <c r="G31" s="72"/>
-      <c r="H31" s="265"/>
-      <c r="I31" s="267"/>
-      <c r="J31" s="267"/>
+      <c r="H31" s="274"/>
+      <c r="I31" s="276"/>
+      <c r="J31" s="276"/>
       <c r="K31" s="64" t="e">
         <f>IF(OR(#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y"),"Direct impact",IF(AND(#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="Y"),"Indirect impact","No impact"))</f>
         <v>#REF!</v>
@@ -23640,9 +23632,9 @@
         <v>446</v>
       </c>
       <c r="G32" s="72"/>
-      <c r="H32" s="265"/>
-      <c r="I32" s="267"/>
-      <c r="J32" s="267"/>
+      <c r="H32" s="274"/>
+      <c r="I32" s="276"/>
+      <c r="J32" s="276"/>
       <c r="K32" s="64" t="e">
         <f>IF(OR(#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y"),"Direct impact",IF(AND(#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="Y"),"Indirect impact","No impact"))</f>
         <v>#REF!</v>
@@ -23670,9 +23662,9 @@
         <v>446</v>
       </c>
       <c r="G33" s="79"/>
-      <c r="H33" s="266"/>
-      <c r="I33" s="260"/>
-      <c r="J33" s="260"/>
+      <c r="H33" s="275"/>
+      <c r="I33" s="269"/>
+      <c r="J33" s="269"/>
       <c r="K33" s="64" t="e">
         <f>IF(OR(#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y"),"Direct impact",IF(AND(#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="Y"),"Indirect impact","No impact"))</f>
         <v>#REF!</v>
@@ -23793,13 +23785,13 @@
       <c r="E37" s="61"/>
       <c r="F37" s="57"/>
       <c r="G37" s="220"/>
-      <c r="H37" s="264" t="s">
+      <c r="H37" s="273" t="s">
         <v>476</v>
       </c>
-      <c r="I37" s="259" t="s">
+      <c r="I37" s="268" t="s">
         <v>477</v>
       </c>
-      <c r="J37" s="268" t="s">
+      <c r="J37" s="277" t="s">
         <v>478</v>
       </c>
       <c r="K37" s="64"/>
@@ -23827,9 +23819,9 @@
         <v>446</v>
       </c>
       <c r="G38" s="72"/>
-      <c r="H38" s="265"/>
-      <c r="I38" s="267"/>
-      <c r="J38" s="268"/>
+      <c r="H38" s="274"/>
+      <c r="I38" s="276"/>
+      <c r="J38" s="277"/>
       <c r="K38" s="64" t="e">
         <f>IF(OR(#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y"),"Direct impact",IF(AND(#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="Y"),"Indirect impact","No impact"))</f>
         <v>#REF!</v>
@@ -23858,9 +23850,9 @@
         <v>446</v>
       </c>
       <c r="G39" s="72"/>
-      <c r="H39" s="265"/>
-      <c r="I39" s="267"/>
-      <c r="J39" s="268"/>
+      <c r="H39" s="274"/>
+      <c r="I39" s="276"/>
+      <c r="J39" s="277"/>
       <c r="K39" s="64" t="e">
         <f>IF(OR(#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y"),"Direct impact",IF(AND(#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="Y"),"Indirect impact","No impact"))</f>
         <v>#REF!</v>
@@ -23889,9 +23881,9 @@
         <v>446</v>
       </c>
       <c r="G40" s="72"/>
-      <c r="H40" s="265"/>
-      <c r="I40" s="267"/>
-      <c r="J40" s="268"/>
+      <c r="H40" s="274"/>
+      <c r="I40" s="276"/>
+      <c r="J40" s="277"/>
       <c r="K40" s="64" t="e">
         <f>IF(OR(#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y"),"Direct impact",IF(AND(#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="Y"),"Indirect impact","No impact"))</f>
         <v>#REF!</v>
@@ -23920,9 +23912,9 @@
         <v>446</v>
       </c>
       <c r="G41" s="72"/>
-      <c r="H41" s="265"/>
-      <c r="I41" s="267"/>
-      <c r="J41" s="268"/>
+      <c r="H41" s="274"/>
+      <c r="I41" s="276"/>
+      <c r="J41" s="277"/>
       <c r="K41" s="64" t="e">
         <f>IF(OR(#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y"),"Direct impact",IF(AND(#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="Y"),"Indirect impact","No impact"))</f>
         <v>#REF!</v>
@@ -23951,9 +23943,9 @@
         <v>446</v>
       </c>
       <c r="G42" s="79"/>
-      <c r="H42" s="266"/>
-      <c r="I42" s="260"/>
-      <c r="J42" s="268"/>
+      <c r="H42" s="275"/>
+      <c r="I42" s="269"/>
+      <c r="J42" s="277"/>
       <c r="K42" s="64" t="e">
         <f>IF(OR(#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y"),"Direct impact",IF(AND(#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="Y"),"Indirect impact","No impact"))</f>
         <v>#REF!</v>
@@ -24110,13 +24102,13 @@
         <v>446</v>
       </c>
       <c r="G47" s="220"/>
-      <c r="H47" s="264" t="s">
+      <c r="H47" s="273" t="s">
         <v>476</v>
       </c>
-      <c r="I47" s="269" t="s">
+      <c r="I47" s="278" t="s">
         <v>505</v>
       </c>
-      <c r="J47" s="270" t="s">
+      <c r="J47" s="279" t="s">
         <v>506</v>
       </c>
       <c r="K47" s="64"/>
@@ -24144,9 +24136,9 @@
         <v>446</v>
       </c>
       <c r="G48" s="72"/>
-      <c r="H48" s="265"/>
-      <c r="I48" s="267"/>
-      <c r="J48" s="268"/>
+      <c r="H48" s="274"/>
+      <c r="I48" s="276"/>
+      <c r="J48" s="277"/>
       <c r="K48" s="64" t="e">
         <f>IF(OR(#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y"),"Direct impact",IF(AND(#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="Y"),"Indirect impact","No impact"))</f>
         <v>#REF!</v>
@@ -24175,9 +24167,9 @@
         <v>446</v>
       </c>
       <c r="G49" s="72"/>
-      <c r="H49" s="265"/>
-      <c r="I49" s="267"/>
-      <c r="J49" s="268"/>
+      <c r="H49" s="274"/>
+      <c r="I49" s="276"/>
+      <c r="J49" s="277"/>
       <c r="K49" s="64" t="e">
         <f>IF(OR(#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y"),"Direct impact",IF(AND(#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="Y"),"Indirect impact","No impact"))</f>
         <v>#REF!</v>
@@ -24206,9 +24198,9 @@
         <v>446</v>
       </c>
       <c r="G50" s="72"/>
-      <c r="H50" s="265"/>
-      <c r="I50" s="267"/>
-      <c r="J50" s="268"/>
+      <c r="H50" s="274"/>
+      <c r="I50" s="276"/>
+      <c r="J50" s="277"/>
       <c r="K50" s="64" t="e">
         <f>IF(OR(#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y"),"Direct impact",IF(AND(#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="Y"),"Indirect impact","No impact"))</f>
         <v>#REF!</v>
@@ -24237,9 +24229,9 @@
         <v>446</v>
       </c>
       <c r="G51" s="72"/>
-      <c r="H51" s="265"/>
-      <c r="I51" s="267"/>
-      <c r="J51" s="268"/>
+      <c r="H51" s="274"/>
+      <c r="I51" s="276"/>
+      <c r="J51" s="277"/>
       <c r="K51" s="64" t="e">
         <f>IF(OR(#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y"),"Direct impact",IF(AND(#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="Y"),"Indirect impact","No impact"))</f>
         <v>#REF!</v>
@@ -24268,9 +24260,9 @@
         <v>446</v>
       </c>
       <c r="G52" s="79"/>
-      <c r="H52" s="266"/>
-      <c r="I52" s="260"/>
-      <c r="J52" s="268"/>
+      <c r="H52" s="275"/>
+      <c r="I52" s="269"/>
+      <c r="J52" s="277"/>
       <c r="K52" s="64" t="e">
         <f>IF(OR(#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y"),"Direct impact",IF(AND(#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="Y"),"Indirect impact","No impact"))</f>
         <v>#REF!</v>
@@ -24400,10 +24392,10 @@
       <c r="H56" s="82" t="s">
         <v>531</v>
       </c>
-      <c r="I56" s="259" t="s">
+      <c r="I56" s="268" t="s">
         <v>532</v>
       </c>
-      <c r="J56" s="259" t="s">
+      <c r="J56" s="268" t="s">
         <v>533</v>
       </c>
       <c r="K56" s="64" t="e">
@@ -24437,8 +24429,8 @@
       <c r="H57" s="62" t="s">
         <v>539</v>
       </c>
-      <c r="I57" s="260"/>
-      <c r="J57" s="260"/>
+      <c r="I57" s="269"/>
+      <c r="J57" s="269"/>
       <c r="K57" s="64" t="e">
         <f>IF(OR(#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y"),"Direct impact",IF(AND(#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="Y"),"Indirect impact","No impact"))</f>
         <v>#REF!</v>
@@ -24470,10 +24462,10 @@
       <c r="H58" s="82" t="s">
         <v>543</v>
       </c>
-      <c r="I58" s="259" t="s">
+      <c r="I58" s="268" t="s">
         <v>544</v>
       </c>
-      <c r="J58" s="259" t="s">
+      <c r="J58" s="268" t="s">
         <v>545</v>
       </c>
       <c r="K58" s="64" t="e">
@@ -24507,8 +24499,8 @@
       <c r="H59" s="62" t="s">
         <v>549</v>
       </c>
-      <c r="I59" s="260"/>
-      <c r="J59" s="260"/>
+      <c r="I59" s="269"/>
+      <c r="J59" s="269"/>
       <c r="K59" s="64" t="e">
         <f>IF(OR(#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y"),"Direct impact",IF(AND(#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="Y"),"Indirect impact","No impact"))</f>
         <v>#REF!</v>
@@ -26921,7 +26913,7 @@
         <v>808</v>
       </c>
       <c r="J128" s="93" t="s">
-        <v>809</v>
+        <v>847</v>
       </c>
       <c r="K128" s="64" t="e">
         <f>IF(OR(#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y"),"Direct impact",IF(AND(#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="Y"),"Indirect impact","No impact"))</f>
@@ -26936,13 +26928,13 @@
         <v>124</v>
       </c>
       <c r="B129" s="95" t="s">
+        <v>809</v>
+      </c>
+      <c r="C129" s="59" t="s">
         <v>810</v>
       </c>
-      <c r="C129" s="59" t="s">
+      <c r="E129" s="81" t="s">
         <v>811</v>
-      </c>
-      <c r="E129" s="81" t="s">
-        <v>812</v>
       </c>
       <c r="F129" s="57" t="s">
         <v>538</v>
@@ -26950,10 +26942,10 @@
       <c r="G129" s="57"/>
       <c r="H129" s="62"/>
       <c r="I129" s="100" t="s">
+        <v>812</v>
+      </c>
+      <c r="J129" s="93" t="s">
         <v>813</v>
-      </c>
-      <c r="J129" s="93" t="s">
-        <v>814</v>
       </c>
       <c r="K129" s="64" t="e">
         <f>IF(OR(#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y"),"Direct impact",IF(AND(#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="Y"),"Indirect impact","No impact"))</f>
@@ -26968,13 +26960,13 @@
         <v>125</v>
       </c>
       <c r="B130" s="95" t="s">
+        <v>814</v>
+      </c>
+      <c r="C130" s="59" t="s">
         <v>815</v>
       </c>
-      <c r="C130" s="59" t="s">
+      <c r="D130" s="98" t="s">
         <v>816</v>
-      </c>
-      <c r="D130" s="98" t="s">
-        <v>817</v>
       </c>
       <c r="E130" s="81" t="s">
         <v>571</v>
@@ -26984,13 +26976,13 @@
       </c>
       <c r="G130" s="57"/>
       <c r="H130" s="62" t="s">
+        <v>817</v>
+      </c>
+      <c r="I130" s="116" t="s">
         <v>818</v>
       </c>
-      <c r="I130" s="116" t="s">
+      <c r="J130" s="116" t="s">
         <v>819</v>
-      </c>
-      <c r="J130" s="116" t="s">
-        <v>820</v>
       </c>
       <c r="K130" s="64" t="e">
         <f>IF(OR(#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y"),"Direct impact",IF(AND(#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="Y"),"Indirect impact","No impact"))</f>
@@ -27005,13 +26997,13 @@
         <v>126</v>
       </c>
       <c r="B131" s="95" t="s">
+        <v>820</v>
+      </c>
+      <c r="C131" s="59" t="s">
         <v>821</v>
       </c>
-      <c r="C131" s="59" t="s">
-        <v>822</v>
-      </c>
       <c r="D131" s="98" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E131" s="81" t="s">
         <v>571</v>
@@ -27021,13 +27013,13 @@
       </c>
       <c r="G131" s="57"/>
       <c r="H131" s="62" t="s">
+        <v>817</v>
+      </c>
+      <c r="I131" s="116" t="s">
         <v>818</v>
       </c>
-      <c r="I131" s="116" t="s">
+      <c r="J131" s="116" t="s">
         <v>819</v>
-      </c>
-      <c r="J131" s="116" t="s">
-        <v>820</v>
       </c>
       <c r="K131" s="64" t="e">
         <f>IF(OR(#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y"),"Direct impact",IF(AND(#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="Y"),"Indirect impact","No impact"))</f>
@@ -27042,13 +27034,13 @@
         <v>127</v>
       </c>
       <c r="B132" s="95" t="s">
+        <v>822</v>
+      </c>
+      <c r="C132" s="59" t="s">
         <v>823</v>
       </c>
-      <c r="C132" s="59" t="s">
+      <c r="D132" s="98" t="s">
         <v>824</v>
-      </c>
-      <c r="D132" s="98" t="s">
-        <v>825</v>
       </c>
       <c r="E132" s="81" t="s">
         <v>571</v>
@@ -27058,13 +27050,13 @@
       </c>
       <c r="G132" s="57"/>
       <c r="H132" s="62" t="s">
+        <v>825</v>
+      </c>
+      <c r="I132" s="100" t="s">
         <v>826</v>
       </c>
-      <c r="I132" s="100" t="s">
+      <c r="J132" s="93" t="s">
         <v>827</v>
-      </c>
-      <c r="J132" s="93" t="s">
-        <v>828</v>
       </c>
       <c r="K132" s="64" t="e">
         <f>IF(OR(#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y"),"Direct impact",IF(AND(#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="Y"),"Indirect impact","No impact"))</f>
@@ -27079,13 +27071,13 @@
         <v>128</v>
       </c>
       <c r="B133" s="95" t="s">
+        <v>828</v>
+      </c>
+      <c r="C133" s="59" t="s">
         <v>829</v>
       </c>
-      <c r="C133" s="59" t="s">
-        <v>830</v>
-      </c>
       <c r="D133" s="98" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E133" s="81" t="s">
         <v>571</v>
@@ -27095,7 +27087,7 @@
       </c>
       <c r="G133" s="57"/>
       <c r="H133" s="62" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="I133" s="63" t="s">
         <v>477</v>
@@ -27116,13 +27108,13 @@
         <v>129</v>
       </c>
       <c r="B134" s="95" t="s">
+        <v>830</v>
+      </c>
+      <c r="C134" s="59" t="s">
         <v>831</v>
       </c>
-      <c r="C134" s="59" t="s">
-        <v>832</v>
-      </c>
       <c r="D134" s="98" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E134" s="81" t="s">
         <v>571</v>
@@ -27132,7 +27124,7 @@
       </c>
       <c r="G134" s="57"/>
       <c r="H134" s="62" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="I134" s="100" t="s">
         <v>505</v>
@@ -27153,13 +27145,13 @@
         <v>130</v>
       </c>
       <c r="B135" s="95" t="s">
+        <v>832</v>
+      </c>
+      <c r="C135" s="59" t="s">
         <v>833</v>
       </c>
-      <c r="C135" s="59" t="s">
-        <v>834</v>
-      </c>
       <c r="D135" s="98" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E135" s="81" t="s">
         <v>571</v>
@@ -27169,13 +27161,13 @@
       </c>
       <c r="G135" s="57"/>
       <c r="H135" s="62" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="I135" s="100" t="s">
+        <v>834</v>
+      </c>
+      <c r="J135" s="93" t="s">
         <v>835</v>
-      </c>
-      <c r="J135" s="93" t="s">
-        <v>836</v>
       </c>
       <c r="K135" s="64" t="e">
         <f>IF(OR(#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y"),"Direct impact",IF(AND(#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="Y"),"Indirect impact","No impact"))</f>
@@ -27190,29 +27182,29 @@
         <v>131</v>
       </c>
       <c r="B136" s="95" t="s">
+        <v>836</v>
+      </c>
+      <c r="C136" s="59" t="s">
         <v>837</v>
       </c>
-      <c r="C136" s="59" t="s">
+      <c r="D136" s="98" t="s">
         <v>838</v>
       </c>
-      <c r="D136" s="98" t="s">
+      <c r="E136" s="81" t="s">
         <v>839</v>
-      </c>
-      <c r="E136" s="81" t="s">
-        <v>840</v>
       </c>
       <c r="F136" s="57" t="s">
         <v>733</v>
       </c>
       <c r="G136" s="57"/>
       <c r="H136" s="62" t="s">
+        <v>840</v>
+      </c>
+      <c r="I136" s="100" t="s">
         <v>841</v>
       </c>
-      <c r="I136" s="100" t="s">
+      <c r="J136" s="93" t="s">
         <v>842</v>
-      </c>
-      <c r="J136" s="93" t="s">
-        <v>843</v>
       </c>
       <c r="K136" s="64" t="e">
         <f>IF(OR(#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y"),"Direct impact",IF(AND(#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="Y"),"Indirect impact","No impact"))</f>
@@ -27227,13 +27219,13 @@
         <v>132</v>
       </c>
       <c r="B137" s="117" t="s">
+        <v>843</v>
+      </c>
+      <c r="C137" s="118" t="s">
         <v>844</v>
       </c>
-      <c r="C137" s="118" t="s">
+      <c r="D137" s="119" t="s">
         <v>845</v>
-      </c>
-      <c r="D137" s="119" t="s">
-        <v>846</v>
       </c>
       <c r="E137" s="120" t="s">
         <v>571</v>
@@ -27243,13 +27235,13 @@
       </c>
       <c r="G137" s="121"/>
       <c r="H137" s="122" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="I137" s="123" t="s">
         <v>808</v>
       </c>
       <c r="J137" s="124" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="K137" s="125" t="e">
         <f>IF(OR(#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y"),"Direct impact",IF(AND(#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="Y"),"Indirect impact","No impact"))</f>
@@ -27257,7 +27249,7 @@
       </c>
       <c r="L137" s="121"/>
       <c r="M137" s="126" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="N137" s="127"/>
     </row>
@@ -27266,13 +27258,13 @@
         <v>133</v>
       </c>
       <c r="B138" s="95" t="s">
+        <v>849</v>
+      </c>
+      <c r="C138" s="59" t="s">
         <v>850</v>
       </c>
-      <c r="C138" s="59" t="s">
-        <v>851</v>
-      </c>
       <c r="D138" s="98" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E138" s="81" t="s">
         <v>571</v>
@@ -27282,13 +27274,13 @@
       </c>
       <c r="G138" s="57"/>
       <c r="H138" s="62" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="I138" s="116" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="J138" s="116" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="K138" s="64" t="e">
         <f>IF(OR(#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y"),"Direct impact",IF(AND(#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="Y"),"Indirect impact","No impact"))</f>
@@ -27296,7 +27288,7 @@
       </c>
       <c r="L138" s="57"/>
       <c r="M138" s="129" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="N138" s="86"/>
     </row>
@@ -27305,26 +27297,26 @@
         <v>134</v>
       </c>
       <c r="B139" s="95" t="s">
+        <v>853</v>
+      </c>
+      <c r="C139" s="59" t="s">
         <v>854</v>
       </c>
-      <c r="C139" s="59" t="s">
+      <c r="D139" s="98" t="s">
         <v>855</v>
       </c>
-      <c r="D139" s="98" t="s">
+      <c r="E139" s="61" t="s">
         <v>856</v>
-      </c>
-      <c r="E139" s="61" t="s">
-        <v>857</v>
       </c>
       <c r="F139" s="57" t="s">
         <v>368</v>
       </c>
       <c r="G139" s="57"/>
       <c r="H139" s="62" t="s">
+        <v>857</v>
+      </c>
+      <c r="I139" s="116" t="s">
         <v>858</v>
-      </c>
-      <c r="I139" s="116" t="s">
-        <v>859</v>
       </c>
       <c r="J139" s="116" t="s">
         <v>556</v>
@@ -27335,7 +27327,7 @@
       </c>
       <c r="L139" s="57"/>
       <c r="M139" s="129" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="N139" s="86"/>
     </row>
@@ -27344,29 +27336,29 @@
         <v>135</v>
       </c>
       <c r="B140" s="95" t="s">
+        <v>860</v>
+      </c>
+      <c r="C140" s="59" t="s">
         <v>861</v>
       </c>
-      <c r="C140" s="59" t="s">
-        <v>862</v>
-      </c>
       <c r="D140" s="98" t="s">
+        <v>855</v>
+      </c>
+      <c r="E140" s="61" t="s">
         <v>856</v>
-      </c>
-      <c r="E140" s="61" t="s">
-        <v>857</v>
       </c>
       <c r="F140" s="57" t="s">
         <v>368</v>
       </c>
       <c r="G140" s="57"/>
       <c r="H140" s="62" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="I140" s="116" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="J140" s="116" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="K140" s="64" t="e">
         <f>IF(OR(#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y"),"Direct impact",IF(AND(#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="Y"),"Indirect impact","No impact"))</f>
@@ -27374,7 +27366,7 @@
       </c>
       <c r="L140" s="57"/>
       <c r="M140" s="129" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="N140" s="86"/>
     </row>
@@ -27383,10 +27375,10 @@
         <v>136</v>
       </c>
       <c r="B141" s="95" t="s">
+        <v>862</v>
+      </c>
+      <c r="C141" s="59" t="s">
         <v>863</v>
-      </c>
-      <c r="C141" s="59" t="s">
-        <v>864</v>
       </c>
       <c r="D141" s="98" t="s">
         <v>361</v>
@@ -27400,7 +27392,7 @@
       <c r="G141" s="57"/>
       <c r="H141" s="62"/>
       <c r="I141" s="100" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="J141" s="93" t="s">
         <v>533</v>
@@ -27418,10 +27410,10 @@
         <v>137</v>
       </c>
       <c r="B142" s="68" t="s">
+        <v>865</v>
+      </c>
+      <c r="C142" s="59" t="s">
         <v>866</v>
-      </c>
-      <c r="C142" s="59" t="s">
-        <v>867</v>
       </c>
       <c r="D142" s="69" t="s">
         <v>765</v>
@@ -27448,7 +27440,7 @@
       </c>
       <c r="L142" s="57"/>
       <c r="M142" s="130" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="N142" s="86"/>
     </row>
@@ -27457,10 +27449,10 @@
         <v>138</v>
       </c>
       <c r="B143" s="68" t="s">
+        <v>868</v>
+      </c>
+      <c r="C143" s="59" t="s">
         <v>869</v>
-      </c>
-      <c r="C143" s="59" t="s">
-        <v>870</v>
       </c>
       <c r="D143" s="69" t="s">
         <v>765</v>
@@ -27487,7 +27479,7 @@
       </c>
       <c r="L143" s="57"/>
       <c r="M143" s="131" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="N143" s="86"/>
     </row>
@@ -27496,27 +27488,27 @@
         <v>139</v>
       </c>
       <c r="B144" s="132" t="s">
+        <v>871</v>
+      </c>
+      <c r="C144" s="59" t="s">
         <v>872</v>
       </c>
-      <c r="C144" s="59" t="s">
+      <c r="D144" s="84" t="s">
         <v>873</v>
       </c>
-      <c r="D144" s="84" t="s">
+      <c r="E144" s="133" t="s">
         <v>874</v>
       </c>
-      <c r="E144" s="133" t="s">
+      <c r="F144" s="57" t="s">
         <v>875</v>
-      </c>
-      <c r="F144" s="57" t="s">
-        <v>876</v>
       </c>
       <c r="G144" s="57"/>
       <c r="H144" s="62"/>
       <c r="I144" s="100" t="s">
+        <v>876</v>
+      </c>
+      <c r="J144" s="93" t="s">
         <v>877</v>
-      </c>
-      <c r="J144" s="93" t="s">
-        <v>878</v>
       </c>
       <c r="K144" s="64" t="e">
         <f>IF(OR(#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y"),"Direct impact",IF(AND(#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="Y"),"Indirect impact","No impact"))</f>
@@ -27531,27 +27523,27 @@
         <v>140</v>
       </c>
       <c r="B145" s="132" t="s">
+        <v>878</v>
+      </c>
+      <c r="C145" s="59" t="s">
         <v>879</v>
       </c>
-      <c r="C145" s="59" t="s">
+      <c r="D145" s="84" t="s">
         <v>880</v>
       </c>
-      <c r="D145" s="84" t="s">
-        <v>881</v>
-      </c>
       <c r="E145" s="133" t="s">
+        <v>874</v>
+      </c>
+      <c r="F145" s="57" t="s">
         <v>875</v>
-      </c>
-      <c r="F145" s="57" t="s">
-        <v>876</v>
       </c>
       <c r="G145" s="57"/>
       <c r="H145" s="62"/>
       <c r="I145" s="100" t="s">
+        <v>881</v>
+      </c>
+      <c r="J145" s="93" t="s">
         <v>882</v>
-      </c>
-      <c r="J145" s="93" t="s">
-        <v>883</v>
       </c>
       <c r="K145" s="64" t="e">
         <f>IF(OR(#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y"),"Direct impact",IF(AND(#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="Y"),"Indirect impact","No impact"))</f>
@@ -27566,13 +27558,13 @@
         <v>141</v>
       </c>
       <c r="B146" s="115" t="s">
+        <v>883</v>
+      </c>
+      <c r="C146" s="134" t="s">
         <v>884</v>
       </c>
-      <c r="C146" s="134" t="s">
+      <c r="D146" s="84" t="s">
         <v>885</v>
-      </c>
-      <c r="D146" s="84" t="s">
-        <v>886</v>
       </c>
       <c r="E146" s="57" t="s">
         <v>733</v>
@@ -27582,13 +27574,13 @@
       </c>
       <c r="G146" s="57"/>
       <c r="H146" s="62" t="s">
+        <v>886</v>
+      </c>
+      <c r="I146" s="81" t="s">
         <v>887</v>
       </c>
-      <c r="I146" s="81" t="s">
+      <c r="J146" s="81" t="s">
         <v>888</v>
-      </c>
-      <c r="J146" s="81" t="s">
-        <v>889</v>
       </c>
       <c r="K146" s="57"/>
       <c r="L146" s="57"/>
@@ -27600,13 +27592,13 @@
         <v>142</v>
       </c>
       <c r="B147" s="115" t="s">
+        <v>889</v>
+      </c>
+      <c r="C147" s="134" t="s">
         <v>890</v>
       </c>
-      <c r="C147" s="134" t="s">
-        <v>891</v>
-      </c>
       <c r="D147" s="84" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E147" s="57" t="s">
         <v>733</v>
@@ -27616,13 +27608,13 @@
       </c>
       <c r="G147" s="57"/>
       <c r="H147" s="62" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="I147" s="81" t="s">
+        <v>887</v>
+      </c>
+      <c r="J147" s="81" t="s">
         <v>888</v>
-      </c>
-      <c r="J147" s="81" t="s">
-        <v>889</v>
       </c>
       <c r="K147" s="57"/>
       <c r="L147" s="57"/>
@@ -27634,13 +27626,13 @@
         <v>143</v>
       </c>
       <c r="B148" s="115" t="s">
+        <v>892</v>
+      </c>
+      <c r="C148" s="134" t="s">
         <v>893</v>
       </c>
-      <c r="C148" s="134" t="s">
-        <v>894</v>
-      </c>
       <c r="D148" s="84" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E148" s="57" t="s">
         <v>733</v>
@@ -27650,13 +27642,13 @@
       </c>
       <c r="G148" s="57"/>
       <c r="H148" s="62" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="I148" s="81" t="s">
+        <v>887</v>
+      </c>
+      <c r="J148" s="81" t="s">
         <v>888</v>
-      </c>
-      <c r="J148" s="81" t="s">
-        <v>889</v>
       </c>
       <c r="K148" s="57"/>
       <c r="L148" s="57"/>
@@ -27668,13 +27660,13 @@
         <v>144</v>
       </c>
       <c r="B149" s="115" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C149" s="134" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D149" s="84" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E149" s="57" t="s">
         <v>733</v>
@@ -27684,13 +27676,13 @@
       </c>
       <c r="G149" s="57"/>
       <c r="H149" s="62" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="I149" s="81" t="s">
+        <v>887</v>
+      </c>
+      <c r="J149" s="81" t="s">
         <v>888</v>
-      </c>
-      <c r="J149" s="81" t="s">
-        <v>889</v>
       </c>
       <c r="K149" s="57"/>
       <c r="L149" s="57"/>
@@ -27702,13 +27694,13 @@
         <v>145</v>
       </c>
       <c r="B150" s="115" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C150" s="134" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D150" s="84" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E150" s="57" t="s">
         <v>733</v>
@@ -27718,13 +27710,13 @@
       </c>
       <c r="G150" s="57"/>
       <c r="H150" s="62" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="I150" s="81" t="s">
+        <v>887</v>
+      </c>
+      <c r="J150" s="81" t="s">
         <v>888</v>
-      </c>
-      <c r="J150" s="81" t="s">
-        <v>889</v>
       </c>
       <c r="K150" s="57"/>
       <c r="L150" s="57"/>
@@ -27736,13 +27728,13 @@
         <v>146</v>
       </c>
       <c r="B151" s="115" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C151" s="134" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D151" s="84" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E151" s="57" t="s">
         <v>733</v>
@@ -27752,13 +27744,13 @@
       </c>
       <c r="G151" s="57"/>
       <c r="H151" s="62" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="I151" s="81" t="s">
+        <v>887</v>
+      </c>
+      <c r="J151" s="81" t="s">
         <v>888</v>
-      </c>
-      <c r="J151" s="81" t="s">
-        <v>889</v>
       </c>
       <c r="K151" s="57"/>
       <c r="L151" s="57"/>
@@ -27770,13 +27762,13 @@
         <v>147</v>
       </c>
       <c r="B152" s="115" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C152" s="134" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D152" s="84" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E152" s="57" t="s">
         <v>733</v>
@@ -27786,13 +27778,13 @@
       </c>
       <c r="G152" s="57"/>
       <c r="H152" s="62" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="I152" s="81" t="s">
+        <v>887</v>
+      </c>
+      <c r="J152" s="81" t="s">
         <v>888</v>
-      </c>
-      <c r="J152" s="81" t="s">
-        <v>889</v>
       </c>
       <c r="K152" s="57"/>
       <c r="L152" s="57"/>
@@ -27804,13 +27796,13 @@
         <v>148</v>
       </c>
       <c r="B153" s="115" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C153" s="134" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D153" s="84" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E153" s="57" t="s">
         <v>733</v>
@@ -27820,13 +27812,13 @@
       </c>
       <c r="G153" s="57"/>
       <c r="H153" s="62" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="I153" s="81" t="s">
+        <v>887</v>
+      </c>
+      <c r="J153" s="81" t="s">
         <v>888</v>
-      </c>
-      <c r="J153" s="81" t="s">
-        <v>889</v>
       </c>
       <c r="K153" s="57"/>
       <c r="L153" s="57"/>
@@ -27838,13 +27830,13 @@
         <v>149</v>
       </c>
       <c r="B154" s="115" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C154" s="134" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D154" s="84" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E154" s="57" t="s">
         <v>733</v>
@@ -27854,13 +27846,13 @@
       </c>
       <c r="G154" s="57"/>
       <c r="H154" s="62" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="I154" s="81" t="s">
+        <v>887</v>
+      </c>
+      <c r="J154" s="81" t="s">
         <v>888</v>
-      </c>
-      <c r="J154" s="81" t="s">
-        <v>889</v>
       </c>
       <c r="K154" s="57"/>
       <c r="L154" s="57"/>
@@ -27872,13 +27864,13 @@
         <v>150</v>
       </c>
       <c r="B155" s="115" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C155" s="134" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D155" s="84" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E155" s="57" t="s">
         <v>733</v>
@@ -27888,13 +27880,13 @@
       </c>
       <c r="G155" s="57"/>
       <c r="H155" s="62" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="I155" s="81" t="s">
+        <v>887</v>
+      </c>
+      <c r="J155" s="81" t="s">
         <v>888</v>
-      </c>
-      <c r="J155" s="81" t="s">
-        <v>889</v>
       </c>
       <c r="K155" s="57"/>
       <c r="L155" s="57"/>
@@ -27906,13 +27898,13 @@
         <v>151</v>
       </c>
       <c r="B156" s="115" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C156" s="134" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D156" s="84" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E156" s="57" t="s">
         <v>733</v>
@@ -27922,13 +27914,13 @@
       </c>
       <c r="G156" s="57"/>
       <c r="H156" s="62" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="I156" s="81" t="s">
+        <v>887</v>
+      </c>
+      <c r="J156" s="81" t="s">
         <v>888</v>
-      </c>
-      <c r="J156" s="81" t="s">
-        <v>889</v>
       </c>
       <c r="K156" s="57"/>
       <c r="L156" s="57"/>
@@ -27940,13 +27932,13 @@
         <v>152</v>
       </c>
       <c r="B157" s="115" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C157" s="134" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D157" s="84" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E157" s="57" t="s">
         <v>733</v>
@@ -27956,13 +27948,13 @@
       </c>
       <c r="G157" s="57"/>
       <c r="H157" s="62" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="I157" s="81" t="s">
+        <v>887</v>
+      </c>
+      <c r="J157" s="81" t="s">
         <v>888</v>
-      </c>
-      <c r="J157" s="81" t="s">
-        <v>889</v>
       </c>
       <c r="K157" s="57"/>
       <c r="L157" s="57"/>
@@ -27974,13 +27966,13 @@
         <v>153</v>
       </c>
       <c r="B158" s="115" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C158" s="134" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D158" s="84" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E158" s="57" t="s">
         <v>733</v>
@@ -27990,13 +27982,13 @@
       </c>
       <c r="G158" s="57"/>
       <c r="H158" s="62" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="I158" s="81" t="s">
+        <v>887</v>
+      </c>
+      <c r="J158" s="81" t="s">
         <v>888</v>
-      </c>
-      <c r="J158" s="81" t="s">
-        <v>889</v>
       </c>
       <c r="K158" s="57"/>
       <c r="L158" s="57"/>
@@ -28008,13 +28000,13 @@
         <v>154</v>
       </c>
       <c r="B159" s="115" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C159" s="134" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D159" s="84" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E159" s="57" t="s">
         <v>733</v>
@@ -28024,13 +28016,13 @@
       </c>
       <c r="G159" s="57"/>
       <c r="H159" s="62" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="I159" s="81" t="s">
+        <v>887</v>
+      </c>
+      <c r="J159" s="81" t="s">
         <v>888</v>
-      </c>
-      <c r="J159" s="81" t="s">
-        <v>889</v>
       </c>
       <c r="K159" s="57"/>
       <c r="L159" s="57"/>
@@ -28042,13 +28034,13 @@
         <v>155</v>
       </c>
       <c r="B160" s="115" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C160" s="134" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D160" s="84" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E160" s="57" t="s">
         <v>733</v>
@@ -28058,13 +28050,13 @@
       </c>
       <c r="G160" s="57"/>
       <c r="H160" s="62" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="I160" s="81" t="s">
+        <v>887</v>
+      </c>
+      <c r="J160" s="81" t="s">
         <v>888</v>
-      </c>
-      <c r="J160" s="81" t="s">
-        <v>889</v>
       </c>
       <c r="K160" s="57"/>
       <c r="L160" s="57"/>
@@ -28076,13 +28068,13 @@
         <v>156</v>
       </c>
       <c r="B161" s="115" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C161" s="134" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D161" s="84" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E161" s="57" t="s">
         <v>733</v>
@@ -28092,13 +28084,13 @@
       </c>
       <c r="G161" s="57"/>
       <c r="H161" s="62" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="I161" s="81" t="s">
+        <v>887</v>
+      </c>
+      <c r="J161" s="81" t="s">
         <v>888</v>
-      </c>
-      <c r="J161" s="81" t="s">
-        <v>889</v>
       </c>
       <c r="K161" s="57"/>
       <c r="L161" s="57"/>
@@ -28110,13 +28102,13 @@
         <v>157</v>
       </c>
       <c r="B162" s="115" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C162" s="134" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D162" s="84" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E162" s="57" t="s">
         <v>733</v>
@@ -28126,13 +28118,13 @@
       </c>
       <c r="G162" s="57"/>
       <c r="H162" s="62" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="I162" s="81" t="s">
+        <v>887</v>
+      </c>
+      <c r="J162" s="81" t="s">
         <v>888</v>
-      </c>
-      <c r="J162" s="81" t="s">
-        <v>889</v>
       </c>
       <c r="K162" s="57"/>
       <c r="L162" s="57"/>
@@ -28144,13 +28136,13 @@
         <v>158</v>
       </c>
       <c r="B163" s="115" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C163" s="134" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D163" s="84" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E163" s="57" t="s">
         <v>733</v>
@@ -28160,13 +28152,13 @@
       </c>
       <c r="G163" s="57"/>
       <c r="H163" s="62" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="I163" s="81" t="s">
+        <v>887</v>
+      </c>
+      <c r="J163" s="81" t="s">
         <v>888</v>
-      </c>
-      <c r="J163" s="81" t="s">
-        <v>889</v>
       </c>
       <c r="K163" s="57"/>
       <c r="L163" s="57"/>
@@ -28178,13 +28170,13 @@
         <v>159</v>
       </c>
       <c r="B164" s="115" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C164" s="134" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D164" s="84" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E164" s="57" t="s">
         <v>733</v>
@@ -28194,13 +28186,13 @@
       </c>
       <c r="G164" s="57"/>
       <c r="H164" s="62" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="I164" s="81" t="s">
+        <v>887</v>
+      </c>
+      <c r="J164" s="81" t="s">
         <v>888</v>
-      </c>
-      <c r="J164" s="81" t="s">
-        <v>889</v>
       </c>
       <c r="K164" s="57"/>
       <c r="L164" s="57"/>
@@ -28212,13 +28204,13 @@
         <v>160</v>
       </c>
       <c r="B165" s="115" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C165" s="134" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="D165" s="84" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E165" s="57" t="s">
         <v>733</v>
@@ -28228,13 +28220,13 @@
       </c>
       <c r="G165" s="57"/>
       <c r="H165" s="62" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="I165" s="81" t="s">
+        <v>887</v>
+      </c>
+      <c r="J165" s="81" t="s">
         <v>888</v>
-      </c>
-      <c r="J165" s="81" t="s">
-        <v>889</v>
       </c>
       <c r="K165" s="57"/>
       <c r="L165" s="57"/>
@@ -28246,13 +28238,13 @@
         <v>161</v>
       </c>
       <c r="B166" s="115" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C166" s="134" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D166" s="84" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E166" s="57" t="s">
         <v>733</v>
@@ -28262,13 +28254,13 @@
       </c>
       <c r="G166" s="57"/>
       <c r="H166" s="62" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="I166" s="81" t="s">
+        <v>887</v>
+      </c>
+      <c r="J166" s="81" t="s">
         <v>888</v>
-      </c>
-      <c r="J166" s="81" t="s">
-        <v>889</v>
       </c>
       <c r="K166" s="57"/>
       <c r="L166" s="57"/>
@@ -28280,13 +28272,13 @@
         <v>162</v>
       </c>
       <c r="B167" s="115" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C167" s="134" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D167" s="84" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E167" s="57" t="s">
         <v>733</v>
@@ -28296,13 +28288,13 @@
       </c>
       <c r="G167" s="57"/>
       <c r="H167" s="62" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="I167" s="81" t="s">
+        <v>887</v>
+      </c>
+      <c r="J167" s="81" t="s">
         <v>888</v>
-      </c>
-      <c r="J167" s="81" t="s">
-        <v>889</v>
       </c>
       <c r="K167" s="57"/>
       <c r="L167" s="57"/>
@@ -28314,13 +28306,13 @@
         <v>163</v>
       </c>
       <c r="B168" s="115" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C168" s="134" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D168" s="84" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E168" s="57" t="s">
         <v>733</v>
@@ -28330,13 +28322,13 @@
       </c>
       <c r="G168" s="57"/>
       <c r="H168" s="62" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="I168" s="81" t="s">
+        <v>887</v>
+      </c>
+      <c r="J168" s="81" t="s">
         <v>888</v>
-      </c>
-      <c r="J168" s="81" t="s">
-        <v>889</v>
       </c>
       <c r="K168" s="57"/>
       <c r="L168" s="57"/>
@@ -28348,13 +28340,13 @@
         <v>164</v>
       </c>
       <c r="B169" s="115" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C169" s="134" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D169" s="84" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E169" s="57" t="s">
         <v>733</v>
@@ -28364,13 +28356,13 @@
       </c>
       <c r="G169" s="57"/>
       <c r="H169" s="62" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="I169" s="81" t="s">
+        <v>887</v>
+      </c>
+      <c r="J169" s="81" t="s">
         <v>888</v>
-      </c>
-      <c r="J169" s="81" t="s">
-        <v>889</v>
       </c>
       <c r="K169" s="57"/>
       <c r="L169" s="57"/>
@@ -28382,13 +28374,13 @@
         <v>165</v>
       </c>
       <c r="B170" s="115" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C170" s="134" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D170" s="84" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E170" s="57" t="s">
         <v>733</v>
@@ -28398,13 +28390,13 @@
       </c>
       <c r="G170" s="57"/>
       <c r="H170" s="62" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="I170" s="81" t="s">
+        <v>887</v>
+      </c>
+      <c r="J170" s="81" t="s">
         <v>888</v>
-      </c>
-      <c r="J170" s="81" t="s">
-        <v>889</v>
       </c>
       <c r="K170" s="57"/>
       <c r="L170" s="57"/>
@@ -28416,13 +28408,13 @@
         <v>166</v>
       </c>
       <c r="B171" s="115" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C171" s="134" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D171" s="84" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E171" s="57" t="s">
         <v>733</v>
@@ -28432,13 +28424,13 @@
       </c>
       <c r="G171" s="57"/>
       <c r="H171" s="62" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="I171" s="81" t="s">
+        <v>887</v>
+      </c>
+      <c r="J171" s="81" t="s">
         <v>888</v>
-      </c>
-      <c r="J171" s="81" t="s">
-        <v>889</v>
       </c>
       <c r="K171" s="57"/>
       <c r="L171" s="57"/>
@@ -28450,13 +28442,13 @@
         <v>167</v>
       </c>
       <c r="B172" s="115" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C172" s="134" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D172" s="84" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E172" s="57" t="s">
         <v>733</v>
@@ -28466,13 +28458,13 @@
       </c>
       <c r="G172" s="57"/>
       <c r="H172" s="62" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="I172" s="81" t="s">
+        <v>887</v>
+      </c>
+      <c r="J172" s="81" t="s">
         <v>888</v>
-      </c>
-      <c r="J172" s="81" t="s">
-        <v>889</v>
       </c>
       <c r="K172" s="57"/>
       <c r="L172" s="57"/>
@@ -28484,13 +28476,13 @@
         <v>168</v>
       </c>
       <c r="B173" s="115" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C173" s="134" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D173" s="84" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E173" s="57" t="s">
         <v>733</v>
@@ -28500,13 +28492,13 @@
       </c>
       <c r="G173" s="57"/>
       <c r="H173" s="62" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="I173" s="81" t="s">
+        <v>887</v>
+      </c>
+      <c r="J173" s="81" t="s">
         <v>888</v>
-      </c>
-      <c r="J173" s="81" t="s">
-        <v>889</v>
       </c>
       <c r="K173" s="57"/>
       <c r="L173" s="57"/>
@@ -28518,13 +28510,13 @@
         <v>169</v>
       </c>
       <c r="B174" s="115" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C174" s="134" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D174" s="84" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E174" s="57" t="s">
         <v>733</v>
@@ -28534,13 +28526,13 @@
       </c>
       <c r="G174" s="57"/>
       <c r="H174" s="62" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="I174" s="81" t="s">
+        <v>887</v>
+      </c>
+      <c r="J174" s="81" t="s">
         <v>888</v>
-      </c>
-      <c r="J174" s="81" t="s">
-        <v>889</v>
       </c>
       <c r="K174" s="57"/>
       <c r="L174" s="57"/>
@@ -28552,13 +28544,13 @@
         <v>170</v>
       </c>
       <c r="B175" s="115" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C175" s="134" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D175" s="84" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E175" s="57" t="s">
         <v>733</v>
@@ -28568,13 +28560,13 @@
       </c>
       <c r="G175" s="57"/>
       <c r="H175" s="62" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="I175" s="81" t="s">
+        <v>887</v>
+      </c>
+      <c r="J175" s="81" t="s">
         <v>888</v>
-      </c>
-      <c r="J175" s="81" t="s">
-        <v>889</v>
       </c>
       <c r="K175" s="57"/>
       <c r="L175" s="57"/>
@@ -28586,13 +28578,13 @@
         <v>171</v>
       </c>
       <c r="B176" s="115" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C176" s="134" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D176" s="84" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E176" s="57" t="s">
         <v>733</v>
@@ -28602,13 +28594,13 @@
       </c>
       <c r="G176" s="57"/>
       <c r="H176" s="62" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="I176" s="81" t="s">
+        <v>887</v>
+      </c>
+      <c r="J176" s="81" t="s">
         <v>888</v>
-      </c>
-      <c r="J176" s="81" t="s">
-        <v>889</v>
       </c>
       <c r="K176" s="57"/>
       <c r="L176" s="57"/>
@@ -28620,13 +28612,13 @@
         <v>172</v>
       </c>
       <c r="B177" s="115" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C177" s="134" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D177" s="84" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E177" s="57" t="s">
         <v>733</v>
@@ -28636,13 +28628,13 @@
       </c>
       <c r="G177" s="57"/>
       <c r="H177" s="62" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="I177" s="81" t="s">
+        <v>887</v>
+      </c>
+      <c r="J177" s="81" t="s">
         <v>888</v>
-      </c>
-      <c r="J177" s="81" t="s">
-        <v>889</v>
       </c>
       <c r="K177" s="57"/>
       <c r="L177" s="57"/>
@@ -28654,13 +28646,13 @@
         <v>173</v>
       </c>
       <c r="B178" s="115" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C178" s="134" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D178" s="84" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E178" s="57" t="s">
         <v>733</v>
@@ -28670,13 +28662,13 @@
       </c>
       <c r="G178" s="57"/>
       <c r="H178" s="62" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="I178" s="81" t="s">
+        <v>887</v>
+      </c>
+      <c r="J178" s="81" t="s">
         <v>888</v>
-      </c>
-      <c r="J178" s="81" t="s">
-        <v>889</v>
       </c>
       <c r="K178" s="57"/>
       <c r="L178" s="57"/>
@@ -28688,13 +28680,13 @@
         <v>174</v>
       </c>
       <c r="B179" s="115" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C179" s="134" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D179" s="84" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E179" s="57" t="s">
         <v>733</v>
@@ -28704,13 +28696,13 @@
       </c>
       <c r="G179" s="57"/>
       <c r="H179" s="62" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="I179" s="81" t="s">
+        <v>887</v>
+      </c>
+      <c r="J179" s="81" t="s">
         <v>888</v>
-      </c>
-      <c r="J179" s="81" t="s">
-        <v>889</v>
       </c>
       <c r="K179" s="57"/>
       <c r="L179" s="57"/>
@@ -28722,13 +28714,13 @@
         <v>175</v>
       </c>
       <c r="B180" s="115" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C180" s="134" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D180" s="84" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E180" s="57" t="s">
         <v>733</v>
@@ -28738,13 +28730,13 @@
       </c>
       <c r="G180" s="57"/>
       <c r="H180" s="62" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="I180" s="81" t="s">
+        <v>887</v>
+      </c>
+      <c r="J180" s="81" t="s">
         <v>888</v>
-      </c>
-      <c r="J180" s="81" t="s">
-        <v>889</v>
       </c>
       <c r="K180" s="57"/>
       <c r="L180" s="57"/>
@@ -28756,13 +28748,13 @@
         <v>176</v>
       </c>
       <c r="B181" s="115" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C181" s="134" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D181" s="84" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E181" s="57" t="s">
         <v>733</v>
@@ -28772,13 +28764,13 @@
       </c>
       <c r="G181" s="57"/>
       <c r="H181" s="62" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="I181" s="81" t="s">
+        <v>887</v>
+      </c>
+      <c r="J181" s="81" t="s">
         <v>888</v>
-      </c>
-      <c r="J181" s="81" t="s">
-        <v>889</v>
       </c>
       <c r="K181" s="57"/>
       <c r="L181" s="57"/>
@@ -28790,13 +28782,13 @@
         <v>177</v>
       </c>
       <c r="B182" s="115" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C182" s="134" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D182" s="84" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E182" s="57" t="s">
         <v>733</v>
@@ -28806,13 +28798,13 @@
       </c>
       <c r="G182" s="57"/>
       <c r="H182" s="62" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="I182" s="81" t="s">
+        <v>887</v>
+      </c>
+      <c r="J182" s="81" t="s">
         <v>888</v>
-      </c>
-      <c r="J182" s="81" t="s">
-        <v>889</v>
       </c>
       <c r="K182" s="57"/>
       <c r="L182" s="57"/>
@@ -28824,13 +28816,13 @@
         <v>178</v>
       </c>
       <c r="B183" s="115" t="s">
+        <v>929</v>
+      </c>
+      <c r="C183" s="134" t="s">
         <v>930</v>
       </c>
-      <c r="C183" s="134" t="s">
+      <c r="D183" s="74" t="s">
         <v>931</v>
-      </c>
-      <c r="D183" s="74" t="s">
-        <v>932</v>
       </c>
       <c r="E183" s="57" t="s">
         <v>16</v>
@@ -28840,7 +28832,7 @@
       </c>
       <c r="G183" s="57"/>
       <c r="H183" s="57" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="I183" s="63" t="s">
         <v>477</v>
@@ -28851,7 +28843,7 @@
       <c r="K183" s="57"/>
       <c r="L183" s="57"/>
       <c r="M183" s="114" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="N183" s="86"/>
     </row>
@@ -28860,13 +28852,13 @@
         <v>179</v>
       </c>
       <c r="B184" s="115" t="s">
+        <v>934</v>
+      </c>
+      <c r="C184" s="134" t="s">
         <v>935</v>
       </c>
-      <c r="C184" s="134" t="s">
-        <v>936</v>
-      </c>
       <c r="D184" s="74" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="E184" s="57" t="s">
         <v>16</v>
@@ -28876,10 +28868,10 @@
       </c>
       <c r="G184" s="57"/>
       <c r="H184" s="57" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="I184" s="81" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="J184" s="135" t="s">
         <v>506</v>
@@ -28887,7 +28879,7 @@
       <c r="K184" s="57"/>
       <c r="L184" s="57"/>
       <c r="M184" s="114" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="N184" s="86"/>
     </row>
@@ -28896,13 +28888,13 @@
         <v>180</v>
       </c>
       <c r="B185" s="115" t="s">
+        <v>938</v>
+      </c>
+      <c r="C185" s="134" t="s">
         <v>939</v>
       </c>
-      <c r="C185" s="134" t="s">
-        <v>940</v>
-      </c>
       <c r="D185" s="74" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="E185" s="57" t="s">
         <v>16</v>
@@ -28912,10 +28904,10 @@
       </c>
       <c r="G185" s="57"/>
       <c r="H185" s="57" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="I185" s="81" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="J185" s="135" t="s">
         <v>533</v>
@@ -28923,7 +28915,7 @@
       <c r="K185" s="57"/>
       <c r="L185" s="57"/>
       <c r="M185" s="114" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="N185" s="86"/>
     </row>
@@ -28932,13 +28924,13 @@
         <v>181</v>
       </c>
       <c r="B186" s="115" t="s">
+        <v>942</v>
+      </c>
+      <c r="C186" s="134" t="s">
         <v>943</v>
       </c>
-      <c r="C186" s="134" t="s">
+      <c r="D186" s="74" t="s">
         <v>944</v>
-      </c>
-      <c r="D186" s="74" t="s">
-        <v>945</v>
       </c>
       <c r="E186" s="57" t="s">
         <v>16</v>
@@ -28954,12 +28946,12 @@
         <v>808</v>
       </c>
       <c r="J186" s="135" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="K186" s="57"/>
       <c r="L186" s="57"/>
       <c r="M186" s="114" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="N186" s="86"/>
     </row>
@@ -28968,13 +28960,13 @@
         <v>182</v>
       </c>
       <c r="B187" s="115" t="s">
+        <v>946</v>
+      </c>
+      <c r="C187" s="134" t="s">
         <v>947</v>
       </c>
-      <c r="C187" s="134" t="s">
-        <v>948</v>
-      </c>
       <c r="D187" s="74" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="E187" s="57" t="s">
         <v>16</v>
@@ -28987,15 +28979,15 @@
         <v>543</v>
       </c>
       <c r="I187" s="81" t="s">
+        <v>812</v>
+      </c>
+      <c r="J187" s="135" t="s">
         <v>813</v>
-      </c>
-      <c r="J187" s="135" t="s">
-        <v>814</v>
       </c>
       <c r="K187" s="57"/>
       <c r="L187" s="57"/>
       <c r="M187" s="114" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="N187" s="86"/>
     </row>
@@ -29004,13 +28996,13 @@
         <v>183</v>
       </c>
       <c r="B188" s="115" t="s">
+        <v>949</v>
+      </c>
+      <c r="C188" s="134" t="s">
         <v>950</v>
       </c>
-      <c r="C188" s="134" t="s">
-        <v>951</v>
-      </c>
       <c r="D188" s="74" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="E188" s="57" t="s">
         <v>16</v>
@@ -29023,7 +29015,7 @@
         <v>543</v>
       </c>
       <c r="I188" s="81" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="J188" s="135" t="s">
         <v>348</v>
@@ -29031,7 +29023,7 @@
       <c r="K188" s="57"/>
       <c r="L188" s="57"/>
       <c r="M188" s="114" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="N188" s="86"/>
     </row>
@@ -29040,13 +29032,13 @@
         <v>184</v>
       </c>
       <c r="B189" s="115" t="s">
+        <v>953</v>
+      </c>
+      <c r="C189" s="134" t="s">
         <v>954</v>
       </c>
-      <c r="C189" s="134" t="s">
-        <v>955</v>
-      </c>
       <c r="D189" s="74" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="E189" s="57" t="s">
         <v>16</v>
@@ -29056,10 +29048,10 @@
       </c>
       <c r="G189" s="57"/>
       <c r="H189" s="57" t="s">
+        <v>955</v>
+      </c>
+      <c r="I189" s="81" t="s">
         <v>956</v>
-      </c>
-      <c r="I189" s="81" t="s">
-        <v>957</v>
       </c>
       <c r="J189" s="135" t="s">
         <v>663</v>
@@ -29067,7 +29059,7 @@
       <c r="K189" s="57"/>
       <c r="L189" s="57"/>
       <c r="M189" s="114" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="N189" s="86"/>
     </row>
@@ -29076,13 +29068,13 @@
         <v>185</v>
       </c>
       <c r="B190" s="115" t="s">
+        <v>958</v>
+      </c>
+      <c r="C190" s="134" t="s">
         <v>959</v>
       </c>
-      <c r="C190" s="134" t="s">
-        <v>960</v>
-      </c>
       <c r="D190" s="74" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="E190" s="57" t="s">
         <v>16</v>
@@ -29092,10 +29084,10 @@
       </c>
       <c r="G190" s="57"/>
       <c r="H190" s="57" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="I190" s="81" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="J190" s="135" t="s">
         <v>639</v>
@@ -29103,7 +29095,7 @@
       <c r="K190" s="57"/>
       <c r="L190" s="57"/>
       <c r="M190" s="114" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="N190" s="86"/>
     </row>
@@ -29112,13 +29104,13 @@
         <v>186</v>
       </c>
       <c r="B191" s="115" t="s">
+        <v>962</v>
+      </c>
+      <c r="C191" s="134" t="s">
         <v>963</v>
       </c>
-      <c r="C191" s="134" t="s">
+      <c r="D191" s="74" t="s">
         <v>964</v>
-      </c>
-      <c r="D191" s="74" t="s">
-        <v>965</v>
       </c>
       <c r="E191" s="57" t="s">
         <v>16</v>
@@ -29128,10 +29120,10 @@
       </c>
       <c r="G191" s="57"/>
       <c r="H191" s="57" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="I191" s="81" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="J191" s="135" t="s">
         <v>615</v>
@@ -29139,7 +29131,7 @@
       <c r="K191" s="57"/>
       <c r="L191" s="57"/>
       <c r="M191" s="114" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="N191" s="86"/>
     </row>
@@ -29148,13 +29140,13 @@
         <v>187</v>
       </c>
       <c r="B192" s="115" t="s">
+        <v>967</v>
+      </c>
+      <c r="C192" s="134" t="s">
         <v>968</v>
       </c>
-      <c r="C192" s="134" t="s">
-        <v>969</v>
-      </c>
       <c r="D192" s="74" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="E192" s="57" t="s">
         <v>16</v>
@@ -29167,7 +29159,7 @@
         <v>543</v>
       </c>
       <c r="I192" s="81" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="J192" s="135" t="s">
         <v>673</v>
@@ -29175,7 +29167,7 @@
       <c r="K192" s="57"/>
       <c r="L192" s="57"/>
       <c r="M192" s="114" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="N192" s="86"/>
     </row>
@@ -29184,13 +29176,13 @@
         <v>188</v>
       </c>
       <c r="B193" s="115" t="s">
+        <v>971</v>
+      </c>
+      <c r="C193" s="134" t="s">
         <v>972</v>
       </c>
-      <c r="C193" s="134" t="s">
-        <v>973</v>
-      </c>
       <c r="D193" s="74" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="E193" s="57" t="s">
         <v>16</v>
@@ -29203,7 +29195,7 @@
         <v>543</v>
       </c>
       <c r="I193" s="81" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="J193" s="135" t="s">
         <v>695</v>
@@ -29211,7 +29203,7 @@
       <c r="K193" s="57"/>
       <c r="L193" s="57"/>
       <c r="M193" s="114" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="N193" s="86"/>
     </row>
@@ -29220,13 +29212,13 @@
         <v>189</v>
       </c>
       <c r="B194" s="115" t="s">
+        <v>975</v>
+      </c>
+      <c r="C194" s="134" t="s">
         <v>976</v>
       </c>
-      <c r="C194" s="134" t="s">
-        <v>977</v>
-      </c>
       <c r="D194" s="74" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="E194" s="57" t="s">
         <v>16</v>
@@ -29239,7 +29231,7 @@
         <v>543</v>
       </c>
       <c r="I194" s="81" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="J194" s="135" t="s">
         <v>709</v>
@@ -29247,7 +29239,7 @@
       <c r="K194" s="57"/>
       <c r="L194" s="57"/>
       <c r="M194" s="114" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="N194" s="86"/>
     </row>
@@ -29256,13 +29248,13 @@
         <v>190</v>
       </c>
       <c r="B195" s="115" t="s">
+        <v>979</v>
+      </c>
+      <c r="C195" s="134" t="s">
         <v>980</v>
       </c>
-      <c r="C195" s="134" t="s">
-        <v>981</v>
-      </c>
       <c r="D195" s="74" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="E195" s="57" t="s">
         <v>16</v>
@@ -29275,7 +29267,7 @@
         <v>543</v>
       </c>
       <c r="I195" s="116" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="J195" s="116" t="s">
         <v>352</v>
@@ -29283,7 +29275,7 @@
       <c r="K195" s="57"/>
       <c r="L195" s="57"/>
       <c r="M195" s="114" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="N195" s="86"/>
     </row>
@@ -29292,13 +29284,13 @@
         <v>191</v>
       </c>
       <c r="B196" s="115" t="s">
+        <v>983</v>
+      </c>
+      <c r="C196" s="134" t="s">
         <v>984</v>
       </c>
-      <c r="C196" s="134" t="s">
-        <v>985</v>
-      </c>
       <c r="D196" s="74" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="E196" s="57" t="s">
         <v>16</v>
@@ -29311,7 +29303,7 @@
         <v>543</v>
       </c>
       <c r="I196" s="116" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="J196" s="116" t="s">
         <v>381</v>
@@ -29319,7 +29311,7 @@
       <c r="K196" s="57"/>
       <c r="L196" s="57"/>
       <c r="M196" s="114" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="N196" s="86"/>
     </row>
@@ -29328,13 +29320,13 @@
         <v>192</v>
       </c>
       <c r="B197" s="115" t="s">
+        <v>987</v>
+      </c>
+      <c r="C197" s="134" t="s">
         <v>988</v>
       </c>
-      <c r="C197" s="134" t="s">
-        <v>989</v>
-      </c>
       <c r="D197" s="74" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="E197" s="57" t="s">
         <v>16</v>
@@ -29347,15 +29339,15 @@
         <v>543</v>
       </c>
       <c r="I197" s="81" t="s">
+        <v>834</v>
+      </c>
+      <c r="J197" s="135" t="s">
         <v>835</v>
-      </c>
-      <c r="J197" s="135" t="s">
-        <v>836</v>
       </c>
       <c r="K197" s="57"/>
       <c r="L197" s="57"/>
       <c r="M197" s="114" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="N197" s="86"/>
     </row>
@@ -29364,13 +29356,13 @@
         <v>193</v>
       </c>
       <c r="B198" s="115" t="s">
+        <v>990</v>
+      </c>
+      <c r="C198" s="134" t="s">
         <v>991</v>
       </c>
-      <c r="C198" s="134" t="s">
+      <c r="D198" s="74" t="s">
         <v>992</v>
-      </c>
-      <c r="D198" s="74" t="s">
-        <v>993</v>
       </c>
       <c r="E198" s="57" t="s">
         <v>16</v>
@@ -29380,18 +29372,18 @@
       </c>
       <c r="G198" s="57"/>
       <c r="H198" s="57" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I198" s="81" t="s">
         <v>808</v>
       </c>
       <c r="J198" s="135" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="K198" s="57"/>
       <c r="L198" s="57"/>
       <c r="M198" s="114" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="N198" s="86"/>
     </row>
@@ -29400,13 +29392,13 @@
         <v>194</v>
       </c>
       <c r="B199" s="115" t="s">
+        <v>995</v>
+      </c>
+      <c r="C199" s="134" t="s">
         <v>996</v>
       </c>
-      <c r="C199" s="134" t="s">
+      <c r="D199" s="74" t="s">
         <v>997</v>
-      </c>
-      <c r="D199" s="74" t="s">
-        <v>998</v>
       </c>
       <c r="E199" s="57" t="s">
         <v>16</v>
@@ -29416,18 +29408,18 @@
       </c>
       <c r="G199" s="57"/>
       <c r="H199" s="57" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I199" s="81" t="s">
+        <v>812</v>
+      </c>
+      <c r="J199" s="135" t="s">
         <v>813</v>
-      </c>
-      <c r="J199" s="135" t="s">
-        <v>814</v>
       </c>
       <c r="K199" s="57"/>
       <c r="L199" s="57"/>
       <c r="M199" s="114" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="N199" s="86"/>
     </row>
@@ -29436,13 +29428,13 @@
         <v>195</v>
       </c>
       <c r="B200" s="115" t="s">
+        <v>999</v>
+      </c>
+      <c r="C200" s="134" t="s">
         <v>1000</v>
       </c>
-      <c r="C200" s="134" t="s">
-        <v>1001</v>
-      </c>
       <c r="D200" s="74" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="E200" s="57" t="s">
         <v>16</v>
@@ -29452,10 +29444,10 @@
       </c>
       <c r="G200" s="57"/>
       <c r="H200" s="57" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I200" s="81" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="J200" s="135" t="s">
         <v>473</v>
@@ -29463,7 +29455,7 @@
       <c r="K200" s="57"/>
       <c r="L200" s="57"/>
       <c r="M200" s="114" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="N200" s="86"/>
     </row>
@@ -29472,13 +29464,13 @@
         <v>196</v>
       </c>
       <c r="B201" s="115" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C201" s="134" t="s">
         <v>1004</v>
       </c>
-      <c r="C201" s="134" t="s">
-        <v>1005</v>
-      </c>
       <c r="D201" s="74" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="E201" s="57" t="s">
         <v>16</v>
@@ -29488,20 +29480,20 @@
       </c>
       <c r="G201" s="57"/>
       <c r="H201" s="57" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I201" s="61" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="J201" s="135" t="s">
         <v>502</v>
       </c>
       <c r="K201" s="57" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="L201" s="57"/>
       <c r="M201" s="114" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="N201" s="86"/>
     </row>
@@ -29510,13 +29502,13 @@
         <v>197</v>
       </c>
       <c r="B202" s="115" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C202" s="134" t="s">
         <v>1009</v>
       </c>
-      <c r="C202" s="134" t="s">
-        <v>1010</v>
-      </c>
       <c r="D202" s="74" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="E202" s="57" t="s">
         <v>16</v>
@@ -29526,10 +29518,10 @@
       </c>
       <c r="G202" s="57"/>
       <c r="H202" s="57" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I202" s="81" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="J202" s="135" t="s">
         <v>526</v>
@@ -29537,7 +29529,7 @@
       <c r="K202" s="57"/>
       <c r="L202" s="57"/>
       <c r="M202" s="114" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="N202" s="86"/>
     </row>
@@ -29546,13 +29538,13 @@
         <v>198</v>
       </c>
       <c r="B203" s="115" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C203" s="134" t="s">
         <v>1013</v>
       </c>
-      <c r="C203" s="134" t="s">
-        <v>1014</v>
-      </c>
       <c r="D203" s="74" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="E203" s="57" t="s">
         <v>16</v>
@@ -29562,10 +29554,10 @@
       </c>
       <c r="G203" s="57"/>
       <c r="H203" s="57" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I203" s="81" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="J203" s="135" t="s">
         <v>663</v>
@@ -29573,7 +29565,7 @@
       <c r="K203" s="57"/>
       <c r="L203" s="57"/>
       <c r="M203" s="114" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="N203" s="86"/>
     </row>
@@ -29582,13 +29574,13 @@
         <v>199</v>
       </c>
       <c r="B204" s="115" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C204" s="134" t="s">
         <v>1016</v>
       </c>
-      <c r="C204" s="134" t="s">
-        <v>1017</v>
-      </c>
       <c r="D204" s="74" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="E204" s="57" t="s">
         <v>16</v>
@@ -29598,10 +29590,10 @@
       </c>
       <c r="G204" s="57"/>
       <c r="H204" s="57" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I204" s="81" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="J204" s="135" t="s">
         <v>639</v>
@@ -29609,7 +29601,7 @@
       <c r="K204" s="57"/>
       <c r="L204" s="57"/>
       <c r="M204" s="114" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="N204" s="86"/>
     </row>
@@ -29618,13 +29610,13 @@
         <v>200</v>
       </c>
       <c r="B205" s="115" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C205" s="134" t="s">
         <v>1019</v>
       </c>
-      <c r="C205" s="134" t="s">
-        <v>1020</v>
-      </c>
       <c r="D205" s="74" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="E205" s="57" t="s">
         <v>16</v>
@@ -29634,10 +29626,10 @@
       </c>
       <c r="G205" s="57"/>
       <c r="H205" s="57" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I205" s="81" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="J205" s="135" t="s">
         <v>615</v>
@@ -29645,7 +29637,7 @@
       <c r="K205" s="57"/>
       <c r="L205" s="57"/>
       <c r="M205" s="114" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="N205" s="86"/>
     </row>
@@ -29654,13 +29646,13 @@
         <v>201</v>
       </c>
       <c r="B206" s="115" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C206" s="134" t="s">
         <v>1022</v>
       </c>
-      <c r="C206" s="134" t="s">
+      <c r="D206" s="74" t="s">
         <v>1023</v>
-      </c>
-      <c r="D206" s="74" t="s">
-        <v>1024</v>
       </c>
       <c r="E206" s="57" t="s">
         <v>16</v>
@@ -29670,18 +29662,18 @@
       </c>
       <c r="G206" s="57"/>
       <c r="H206" s="57" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="I206" s="81" t="s">
         <v>808</v>
       </c>
       <c r="J206" s="135" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="K206" s="57"/>
       <c r="L206" s="57"/>
       <c r="M206" s="136" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="N206" s="86"/>
     </row>
@@ -29690,13 +29682,13 @@
         <v>202</v>
       </c>
       <c r="B207" s="115" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C207" s="134" t="s">
         <v>1027</v>
       </c>
-      <c r="C207" s="134" t="s">
-        <v>1028</v>
-      </c>
       <c r="D207" s="74" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E207" s="57" t="s">
         <v>16</v>
@@ -29706,18 +29698,18 @@
       </c>
       <c r="G207" s="57"/>
       <c r="H207" s="57" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="I207" s="81" t="s">
+        <v>812</v>
+      </c>
+      <c r="J207" s="135" t="s">
         <v>813</v>
-      </c>
-      <c r="J207" s="135" t="s">
-        <v>814</v>
       </c>
       <c r="K207" s="57"/>
       <c r="L207" s="57"/>
       <c r="M207" s="136" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="N207" s="86"/>
     </row>
@@ -29726,13 +29718,13 @@
         <v>203</v>
       </c>
       <c r="B208" s="115" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C208" s="134" t="s">
         <v>1030</v>
       </c>
-      <c r="C208" s="134" t="s">
+      <c r="D208" s="74" t="s">
         <v>1031</v>
-      </c>
-      <c r="D208" s="74" t="s">
-        <v>1032</v>
       </c>
       <c r="E208" s="57" t="s">
         <v>16</v>
@@ -29742,10 +29734,10 @@
       </c>
       <c r="G208" s="57"/>
       <c r="H208" s="57" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="I208" s="81" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="J208" s="135" t="s">
         <v>673</v>
@@ -29753,7 +29745,7 @@
       <c r="K208" s="57"/>
       <c r="L208" s="57"/>
       <c r="M208" s="136" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="N208" s="86"/>
     </row>
@@ -29762,13 +29754,13 @@
         <v>204</v>
       </c>
       <c r="B209" s="115" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C209" s="134" t="s">
         <v>1035</v>
       </c>
-      <c r="C209" s="134" t="s">
-        <v>1036</v>
-      </c>
       <c r="D209" s="74" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="E209" s="57" t="s">
         <v>16</v>
@@ -29778,10 +29770,10 @@
       </c>
       <c r="G209" s="57"/>
       <c r="H209" s="57" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="I209" s="81" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="J209" s="135" t="s">
         <v>695</v>
@@ -29789,7 +29781,7 @@
       <c r="K209" s="57"/>
       <c r="L209" s="57"/>
       <c r="M209" s="136" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="N209" s="86"/>
     </row>
@@ -29798,13 +29790,13 @@
         <v>205</v>
       </c>
       <c r="B210" s="115" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C210" s="134" t="s">
         <v>1038</v>
       </c>
-      <c r="C210" s="134" t="s">
-        <v>1039</v>
-      </c>
       <c r="D210" s="74" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="E210" s="57" t="s">
         <v>16</v>
@@ -29814,10 +29806,10 @@
       </c>
       <c r="G210" s="57"/>
       <c r="H210" s="57" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="I210" s="81" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="J210" s="135" t="s">
         <v>709</v>
@@ -29825,7 +29817,7 @@
       <c r="K210" s="57"/>
       <c r="L210" s="57"/>
       <c r="M210" s="136" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="N210" s="86"/>
     </row>
@@ -29834,13 +29826,13 @@
         <v>206</v>
       </c>
       <c r="B211" s="115" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C211" s="134" t="s">
         <v>1041</v>
       </c>
-      <c r="C211" s="134" t="s">
-        <v>1042</v>
-      </c>
       <c r="D211" s="74" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="E211" s="57" t="s">
         <v>16</v>
@@ -29850,10 +29842,10 @@
       </c>
       <c r="G211" s="57"/>
       <c r="H211" s="57" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="I211" s="116" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="J211" s="116" t="s">
         <v>352</v>
@@ -29861,7 +29853,7 @@
       <c r="K211" s="57"/>
       <c r="L211" s="57"/>
       <c r="M211" s="136" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="N211" s="86"/>
     </row>
@@ -29870,13 +29862,13 @@
         <v>207</v>
       </c>
       <c r="B212" s="115" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C212" s="134" t="s">
         <v>1044</v>
       </c>
-      <c r="C212" s="134" t="s">
-        <v>1045</v>
-      </c>
       <c r="D212" s="74" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="E212" s="57" t="s">
         <v>16</v>
@@ -29886,10 +29878,10 @@
       </c>
       <c r="G212" s="57"/>
       <c r="H212" s="57" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="I212" s="116" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="J212" s="116" t="s">
         <v>381</v>
@@ -29897,7 +29889,7 @@
       <c r="K212" s="57"/>
       <c r="L212" s="57"/>
       <c r="M212" s="136" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="N212" s="86"/>
     </row>
@@ -29906,13 +29898,13 @@
         <v>208</v>
       </c>
       <c r="B213" s="115" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C213" s="134" t="s">
         <v>1047</v>
       </c>
-      <c r="C213" s="134" t="s">
-        <v>1048</v>
-      </c>
       <c r="D213" s="74" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="E213" s="57" t="s">
         <v>16</v>
@@ -29922,10 +29914,10 @@
       </c>
       <c r="G213" s="57"/>
       <c r="H213" s="57" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="I213" s="81" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="J213" s="135" t="s">
         <v>599</v>
@@ -29933,7 +29925,7 @@
       <c r="K213" s="57"/>
       <c r="L213" s="57"/>
       <c r="M213" s="136" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="N213" s="86"/>
     </row>
@@ -29942,13 +29934,13 @@
         <v>209</v>
       </c>
       <c r="B214" s="115" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C214" s="134" t="s">
         <v>1051</v>
       </c>
-      <c r="C214" s="134" t="s">
-        <v>1052</v>
-      </c>
       <c r="D214" s="74" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="E214" s="57" t="s">
         <v>16</v>
@@ -29958,10 +29950,10 @@
       </c>
       <c r="G214" s="57"/>
       <c r="H214" s="57" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="I214" s="81" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="J214" s="135" t="s">
         <v>625</v>
@@ -29969,7 +29961,7 @@
       <c r="K214" s="57"/>
       <c r="L214" s="57"/>
       <c r="M214" s="136" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="N214" s="86"/>
     </row>
@@ -29978,13 +29970,13 @@
         <v>210</v>
       </c>
       <c r="B215" s="115" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C215" s="134" t="s">
         <v>1055</v>
       </c>
-      <c r="C215" s="134" t="s">
-        <v>1056</v>
-      </c>
       <c r="D215" s="74" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="E215" s="57" t="s">
         <v>16</v>
@@ -29994,10 +29986,10 @@
       </c>
       <c r="G215" s="57"/>
       <c r="H215" s="57" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="I215" s="81" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="J215" s="135" t="s">
         <v>649</v>
@@ -30005,7 +29997,7 @@
       <c r="K215" s="57"/>
       <c r="L215" s="57"/>
       <c r="M215" s="136" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="N215" s="86"/>
     </row>
@@ -30014,13 +30006,13 @@
         <v>211</v>
       </c>
       <c r="B216" s="115" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C216" s="134" t="s">
         <v>1059</v>
       </c>
-      <c r="C216" s="134" t="s">
-        <v>1060</v>
-      </c>
       <c r="D216" s="74" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="E216" s="57" t="s">
         <v>16</v>
@@ -30030,21 +30022,21 @@
       </c>
       <c r="G216" s="57"/>
       <c r="H216" s="57" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="I216" s="137" t="s">
+        <v>1060</v>
+      </c>
+      <c r="J216" s="138" t="s">
         <v>1061</v>
-      </c>
-      <c r="J216" s="138" t="s">
-        <v>1062</v>
       </c>
       <c r="K216" s="57"/>
       <c r="L216" s="57"/>
       <c r="M216" s="136" t="s">
+        <v>1062</v>
+      </c>
+      <c r="N216" s="139" t="s">
         <v>1063</v>
-      </c>
-      <c r="N216" s="139" t="s">
-        <v>1064</v>
       </c>
     </row>
     <row r="217" spans="1:14" s="67" customFormat="1" ht="76.5" hidden="1" x14ac:dyDescent="0.3">
@@ -30052,13 +30044,13 @@
         <v>212</v>
       </c>
       <c r="B217" s="115" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C217" s="134" t="s">
         <v>1065</v>
       </c>
-      <c r="C217" s="134" t="s">
+      <c r="D217" s="74" t="s">
         <v>1066</v>
-      </c>
-      <c r="D217" s="74" t="s">
-        <v>1067</v>
       </c>
       <c r="E217" s="57" t="s">
         <v>16</v>
@@ -30068,18 +30060,18 @@
       </c>
       <c r="G217" s="57"/>
       <c r="H217" s="57" t="s">
+        <v>1067</v>
+      </c>
+      <c r="I217" s="81" t="s">
         <v>1068</v>
       </c>
-      <c r="I217" s="81" t="s">
+      <c r="J217" s="135" t="s">
         <v>1069</v>
-      </c>
-      <c r="J217" s="135" t="s">
-        <v>1070</v>
       </c>
       <c r="K217" s="57"/>
       <c r="L217" s="57"/>
       <c r="M217" s="136" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="N217" s="86"/>
     </row>
@@ -30088,13 +30080,13 @@
         <v>213</v>
       </c>
       <c r="B218" s="115" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C218" s="134" t="s">
         <v>1072</v>
       </c>
-      <c r="C218" s="134" t="s">
-        <v>1073</v>
-      </c>
       <c r="D218" s="74" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E218" s="57" t="s">
         <v>16</v>
@@ -30104,18 +30096,18 @@
       </c>
       <c r="G218" s="57"/>
       <c r="H218" s="57" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="I218" s="81" t="s">
+        <v>1073</v>
+      </c>
+      <c r="J218" s="135" t="s">
         <v>1074</v>
-      </c>
-      <c r="J218" s="135" t="s">
-        <v>1075</v>
       </c>
       <c r="K218" s="57"/>
       <c r="L218" s="57"/>
       <c r="M218" s="136" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="N218" s="86"/>
     </row>
@@ -30124,13 +30116,13 @@
         <v>214</v>
       </c>
       <c r="B219" s="115" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C219" s="134" t="s">
         <v>1077</v>
       </c>
-      <c r="C219" s="134" t="s">
+      <c r="D219" s="84" t="s">
         <v>1078</v>
-      </c>
-      <c r="D219" s="84" t="s">
-        <v>1079</v>
       </c>
       <c r="E219" s="81" t="s">
         <v>289</v>
@@ -30140,7 +30132,7 @@
       </c>
       <c r="G219" s="57"/>
       <c r="H219" s="57" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="I219" s="100" t="s">
         <v>775</v>
@@ -30154,7 +30146,7 @@
       </c>
       <c r="L219" s="57"/>
       <c r="M219" s="136" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="N219" s="86"/>
     </row>
@@ -30163,13 +30155,13 @@
         <v>215</v>
       </c>
       <c r="B220" s="115" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C220" s="134" t="s">
         <v>1082</v>
       </c>
-      <c r="C220" s="134" t="s">
-        <v>1083</v>
-      </c>
       <c r="D220" s="84" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="E220" s="81" t="s">
         <v>289</v>
@@ -30179,10 +30171,10 @@
       </c>
       <c r="G220" s="57"/>
       <c r="H220" s="57" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="I220" s="63" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="J220" s="93" t="s">
         <v>478</v>
@@ -30193,7 +30185,7 @@
       </c>
       <c r="L220" s="57"/>
       <c r="M220" s="136" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="N220" s="86"/>
     </row>
@@ -30202,13 +30194,13 @@
         <v>216</v>
       </c>
       <c r="B221" s="115" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C221" s="134" t="s">
         <v>1086</v>
       </c>
-      <c r="C221" s="134" t="s">
-        <v>1087</v>
-      </c>
       <c r="D221" s="84" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="E221" s="81" t="s">
         <v>289</v>
@@ -30218,7 +30210,7 @@
       </c>
       <c r="G221" s="57"/>
       <c r="H221" s="57" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="I221" s="140" t="s">
         <v>505</v>
@@ -30232,7 +30224,7 @@
       </c>
       <c r="L221" s="57"/>
       <c r="M221" s="136" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="N221" s="86"/>
     </row>
@@ -30241,13 +30233,13 @@
         <v>217</v>
       </c>
       <c r="B222" s="115" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C222" s="134" t="s">
         <v>1089</v>
       </c>
-      <c r="C222" s="134" t="s">
-        <v>1090</v>
-      </c>
       <c r="D222" s="84" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="E222" s="81" t="s">
         <v>289</v>
@@ -30257,13 +30249,13 @@
       </c>
       <c r="G222" s="57"/>
       <c r="H222" s="57" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="I222" s="100" t="s">
+        <v>1073</v>
+      </c>
+      <c r="J222" s="93" t="s">
         <v>1074</v>
-      </c>
-      <c r="J222" s="93" t="s">
-        <v>1075</v>
       </c>
       <c r="K222" s="64" t="e">
         <f>IF(#REF!="Y","only software validation",IF(AND(#REF!="N",#REF!= "N",#REF!= "N"),"Group A",IF(AND(#REF!="Y",#REF!="Y"),"Group C","Group B")))</f>
@@ -30271,7 +30263,7 @@
       </c>
       <c r="L222" s="57"/>
       <c r="M222" s="136" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="N222" s="86"/>
     </row>
@@ -30280,13 +30272,13 @@
         <v>218</v>
       </c>
       <c r="B223" s="132" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C223" s="134" t="s">
         <v>1092</v>
       </c>
-      <c r="C223" s="134" t="s">
+      <c r="D223" s="84" t="s">
         <v>1093</v>
-      </c>
-      <c r="D223" s="84" t="s">
-        <v>1094</v>
       </c>
       <c r="E223" s="81" t="s">
         <v>118</v>
@@ -30297,10 +30289,10 @@
       <c r="G223" s="57"/>
       <c r="H223" s="62"/>
       <c r="I223" s="100" t="s">
+        <v>1068</v>
+      </c>
+      <c r="J223" s="93" t="s">
         <v>1069</v>
-      </c>
-      <c r="J223" s="93" t="s">
-        <v>1070</v>
       </c>
       <c r="K223" s="64" t="e">
         <f>IF(#REF!="Y","only software validation",IF(AND(#REF!="N",#REF!= "N",#REF!= "N"),"Group A",IF(AND(#REF!="Y",#REF!="Y"),"Group C","Group B")))</f>
@@ -30315,13 +30307,13 @@
         <v>219</v>
       </c>
       <c r="B224" s="132" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C224" s="134" t="s">
         <v>1095</v>
       </c>
-      <c r="C224" s="134" t="s">
+      <c r="D224" s="84" t="s">
         <v>1096</v>
-      </c>
-      <c r="D224" s="84" t="s">
-        <v>1097</v>
       </c>
       <c r="E224" s="81" t="s">
         <v>118</v>
@@ -30332,10 +30324,10 @@
       <c r="G224" s="57"/>
       <c r="H224" s="62"/>
       <c r="I224" s="100" t="s">
+        <v>1068</v>
+      </c>
+      <c r="J224" s="93" t="s">
         <v>1069</v>
-      </c>
-      <c r="J224" s="93" t="s">
-        <v>1070</v>
       </c>
       <c r="K224" s="64" t="e">
         <f>IF(#REF!="Y","only software validation",IF(AND(#REF!="N",#REF!= "N",#REF!= "N"),"Group A",IF(AND(#REF!="Y",#REF!="Y"),"Group C","Group B")))</f>
@@ -30350,10 +30342,10 @@
         <v>220</v>
       </c>
       <c r="B225" s="132" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C225" s="134" t="s">
         <v>1098</v>
-      </c>
-      <c r="C225" s="134" t="s">
-        <v>1099</v>
       </c>
       <c r="D225" s="84" t="s">
         <v>218</v>
@@ -30367,10 +30359,10 @@
       <c r="G225" s="57"/>
       <c r="H225" s="62"/>
       <c r="I225" s="100" t="s">
+        <v>1068</v>
+      </c>
+      <c r="J225" s="93" t="s">
         <v>1069</v>
-      </c>
-      <c r="J225" s="93" t="s">
-        <v>1070</v>
       </c>
       <c r="K225" s="64" t="e">
         <f>IF(#REF!="Y","only software validation",IF(AND(#REF!="N",#REF!= "N",#REF!= "N"),"Group A",IF(AND(#REF!="Y",#REF!="Y"),"Group C","Group B")))</f>
@@ -30385,10 +30377,10 @@
         <v>221</v>
       </c>
       <c r="B226" s="132" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C226" s="134" t="s">
         <v>1100</v>
-      </c>
-      <c r="C226" s="134" t="s">
-        <v>1101</v>
       </c>
       <c r="D226" s="84" t="s">
         <v>221</v>
@@ -30402,7 +30394,7 @@
       <c r="G226" s="57"/>
       <c r="H226" s="62"/>
       <c r="I226" s="141" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="J226" s="142" t="s">
         <v>408</v>
@@ -30413,7 +30405,7 @@
       </c>
       <c r="L226" s="57"/>
       <c r="M226" s="131" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="N226" s="86"/>
     </row>
@@ -30422,10 +30414,10 @@
         <v>222</v>
       </c>
       <c r="B227" s="132" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C227" s="134" t="s">
         <v>1104</v>
-      </c>
-      <c r="C227" s="134" t="s">
-        <v>1105</v>
       </c>
       <c r="D227" s="84" t="s">
         <v>223</v>
@@ -30439,10 +30431,10 @@
       <c r="G227" s="57"/>
       <c r="H227" s="62"/>
       <c r="I227" s="100" t="s">
+        <v>1073</v>
+      </c>
+      <c r="J227" s="93" t="s">
         <v>1074</v>
-      </c>
-      <c r="J227" s="93" t="s">
-        <v>1075</v>
       </c>
       <c r="K227" s="64" t="e">
         <f>IF(#REF!="Y","only software validation",IF(AND(#REF!="N",#REF!= "N",#REF!= "N"),"Group A",IF(AND(#REF!="Y",#REF!="Y"),"Group C","Group B")))</f>
@@ -30457,13 +30449,13 @@
         <v>223</v>
       </c>
       <c r="B228" s="132" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C228" s="134" t="s">
         <v>1106</v>
       </c>
-      <c r="C228" s="134" t="s">
+      <c r="D228" s="84" t="s">
         <v>1107</v>
-      </c>
-      <c r="D228" s="84" t="s">
-        <v>1108</v>
       </c>
       <c r="E228" s="81" t="s">
         <v>118</v>
@@ -30474,10 +30466,10 @@
       <c r="G228" s="57"/>
       <c r="H228" s="62"/>
       <c r="I228" s="100" t="s">
+        <v>1073</v>
+      </c>
+      <c r="J228" s="93" t="s">
         <v>1074</v>
-      </c>
-      <c r="J228" s="93" t="s">
-        <v>1075</v>
       </c>
       <c r="K228" s="64" t="e">
         <f>IF(#REF!="Y","only software validation",IF(AND(#REF!="N",#REF!= "N",#REF!= "N"),"Group A",IF(AND(#REF!="Y",#REF!="Y"),"Group C","Group B")))</f>
@@ -30492,13 +30484,13 @@
         <v>224</v>
       </c>
       <c r="B229" s="115" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C229" s="134" t="s">
         <v>1109</v>
       </c>
-      <c r="C229" s="134" t="s">
+      <c r="D229" s="74" t="s">
         <v>1110</v>
-      </c>
-      <c r="D229" s="74" t="s">
-        <v>1111</v>
       </c>
       <c r="E229" s="143" t="s">
         <v>537</v>
@@ -30508,7 +30500,7 @@
       </c>
       <c r="G229" s="57"/>
       <c r="H229" s="144" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="I229" s="100" t="s">
         <v>17</v>
@@ -30521,7 +30513,7 @@
         <v>#REF!</v>
       </c>
       <c r="L229" s="57" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="M229" s="85"/>
       <c r="N229" s="86"/>
@@ -30531,13 +30523,13 @@
         <v>225</v>
       </c>
       <c r="B230" s="115" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C230" s="134" t="s">
         <v>1113</v>
       </c>
-      <c r="C230" s="134" t="s">
-        <v>1114</v>
-      </c>
       <c r="D230" s="74" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="E230" s="143" t="s">
         <v>537</v>
@@ -30547,7 +30539,7 @@
       </c>
       <c r="G230" s="57"/>
       <c r="H230" s="144" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="I230" s="100" t="s">
         <v>17</v>
@@ -30568,13 +30560,13 @@
         <v>226</v>
       </c>
       <c r="B231" s="115" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C231" s="134" t="s">
         <v>1115</v>
       </c>
-      <c r="C231" s="134" t="s">
-        <v>1116</v>
-      </c>
       <c r="D231" s="74" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="E231" s="143" t="s">
         <v>537</v>
@@ -30584,7 +30576,7 @@
       </c>
       <c r="G231" s="57"/>
       <c r="H231" s="144" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="I231" s="100" t="s">
         <v>17</v>
@@ -30605,26 +30597,26 @@
         <v>227</v>
       </c>
       <c r="B232" s="115" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C232" s="134" t="s">
         <v>1117</v>
       </c>
-      <c r="C232" s="134" t="s">
+      <c r="D232" s="145" t="s">
         <v>1118</v>
-      </c>
-      <c r="D232" s="145" t="s">
-        <v>1119</v>
       </c>
       <c r="E232" s="81" t="s">
         <v>683</v>
       </c>
       <c r="F232" s="57" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="G232" s="57"/>
       <c r="H232" s="62" t="s">
+        <v>1120</v>
+      </c>
+      <c r="I232" s="146" t="s">
         <v>1121</v>
-      </c>
-      <c r="I232" s="146" t="s">
-        <v>1122</v>
       </c>
       <c r="J232" s="61" t="s">
         <v>441</v>
@@ -30642,26 +30634,26 @@
         <v>228</v>
       </c>
       <c r="B233" s="115" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C233" s="134" t="s">
         <v>1123</v>
       </c>
-      <c r="C233" s="134" t="s">
-        <v>1124</v>
-      </c>
       <c r="D233" s="145" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="E233" s="81" t="s">
         <v>683</v>
       </c>
       <c r="F233" s="57" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="G233" s="57"/>
       <c r="H233" s="62" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="I233" s="147" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="J233" s="148" t="s">
         <v>478</v>
@@ -30679,29 +30671,29 @@
         <v>229</v>
       </c>
       <c r="B234" s="115" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C234" s="134" t="s">
         <v>1126</v>
       </c>
-      <c r="C234" s="134" t="s">
-        <v>1127</v>
-      </c>
       <c r="D234" s="145" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="E234" s="81" t="s">
         <v>683</v>
       </c>
       <c r="F234" s="57" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="G234" s="57"/>
       <c r="H234" s="62" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="I234" s="57" t="s">
+        <v>1127</v>
+      </c>
+      <c r="J234" s="61" t="s">
         <v>1128</v>
-      </c>
-      <c r="J234" s="61" t="s">
-        <v>1129</v>
       </c>
       <c r="K234" s="64" t="e">
         <f>IF(OR(#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y"),"Direct impact",IF(AND(#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="Y"),"Indirect impact","No impact"))</f>
@@ -30716,29 +30708,29 @@
         <v>230</v>
       </c>
       <c r="B235" s="115" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C235" s="134" t="s">
         <v>1130</v>
       </c>
-      <c r="C235" s="134" t="s">
-        <v>1131</v>
-      </c>
       <c r="D235" s="145" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="E235" s="81" t="s">
         <v>683</v>
       </c>
       <c r="F235" s="57" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="G235" s="57"/>
       <c r="H235" s="62" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="I235" s="63" t="s">
+        <v>1131</v>
+      </c>
+      <c r="J235" s="61" t="s">
         <v>1132</v>
-      </c>
-      <c r="J235" s="61" t="s">
-        <v>1133</v>
       </c>
       <c r="K235" s="64" t="e">
         <f>IF(OR(#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y"),"Direct impact",IF(AND(#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="Y"),"Indirect impact","No impact"))</f>
@@ -30753,29 +30745,29 @@
         <v>231</v>
       </c>
       <c r="B236" s="115" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C236" s="134" t="s">
         <v>1134</v>
       </c>
-      <c r="C236" s="134" t="s">
-        <v>1135</v>
-      </c>
       <c r="D236" s="145" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="E236" s="81" t="s">
         <v>683</v>
       </c>
       <c r="F236" s="57" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="G236" s="57"/>
       <c r="H236" s="62" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="I236" s="63" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="J236" s="61" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="K236" s="64" t="e">
         <f>IF(OR(#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y"),"Direct impact",IF(AND(#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="Y"),"Indirect impact","No impact"))</f>
@@ -30790,26 +30782,26 @@
         <v>232</v>
       </c>
       <c r="B237" s="115" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C237" s="134" t="s">
         <v>1137</v>
       </c>
-      <c r="C237" s="134" t="s">
-        <v>1138</v>
-      </c>
       <c r="D237" s="145" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="E237" s="81" t="s">
         <v>683</v>
       </c>
       <c r="F237" s="57" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="G237" s="57"/>
       <c r="H237" s="62" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="I237" s="63" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="J237" s="61" t="s">
         <v>673</v>
@@ -30827,26 +30819,26 @@
         <v>233</v>
       </c>
       <c r="B238" s="115" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C238" s="134" t="s">
         <v>1140</v>
       </c>
-      <c r="C238" s="134" t="s">
-        <v>1141</v>
-      </c>
       <c r="D238" s="145" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="E238" s="81" t="s">
         <v>683</v>
       </c>
       <c r="F238" s="57" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="G238" s="57"/>
       <c r="H238" s="62" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="I238" s="63" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="J238" s="61" t="s">
         <v>695</v>
@@ -30864,23 +30856,23 @@
         <v>234</v>
       </c>
       <c r="B239" s="115" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C239" s="134" t="s">
         <v>1143</v>
       </c>
-      <c r="C239" s="134" t="s">
-        <v>1144</v>
-      </c>
       <c r="D239" s="145" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="E239" s="81" t="s">
         <v>683</v>
       </c>
       <c r="F239" s="57" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="G239" s="57"/>
       <c r="H239" s="62" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="I239" s="63" t="s">
         <v>708</v>
@@ -30901,23 +30893,23 @@
         <v>235</v>
       </c>
       <c r="B240" s="115" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C240" s="134" t="s">
         <v>1145</v>
       </c>
-      <c r="C240" s="134" t="s">
-        <v>1146</v>
-      </c>
       <c r="D240" s="145" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="E240" s="81" t="s">
         <v>683</v>
       </c>
       <c r="F240" s="57" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="G240" s="57"/>
       <c r="H240" s="62" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="I240" s="149" t="s">
         <v>351</v>
@@ -30938,26 +30930,26 @@
         <v>236</v>
       </c>
       <c r="B241" s="115" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C241" s="134" t="s">
         <v>1147</v>
       </c>
-      <c r="C241" s="134" t="s">
-        <v>1148</v>
-      </c>
       <c r="D241" s="145" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="E241" s="81" t="s">
         <v>683</v>
       </c>
       <c r="F241" s="57" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="G241" s="57"/>
       <c r="H241" s="62" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="I241" s="149" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="J241" s="61" t="s">
         <v>381</v>
@@ -30975,29 +30967,29 @@
         <v>237</v>
       </c>
       <c r="B242" s="115" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C242" s="134" t="s">
         <v>1150</v>
       </c>
-      <c r="C242" s="134" t="s">
+      <c r="D242" s="145" t="s">
         <v>1151</v>
-      </c>
-      <c r="D242" s="145" t="s">
-        <v>1152</v>
       </c>
       <c r="E242" s="81" t="s">
         <v>683</v>
       </c>
       <c r="F242" s="57" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="G242" s="57"/>
       <c r="H242" s="62" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="I242" s="149" t="s">
+        <v>1152</v>
+      </c>
+      <c r="J242" s="150" t="s">
         <v>1153</v>
-      </c>
-      <c r="J242" s="150" t="s">
-        <v>1154</v>
       </c>
       <c r="K242" s="64" t="e">
         <f>IF(OR(#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y"),"Direct impact",IF(AND(#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="Y"),"Indirect impact","No impact"))</f>
@@ -31012,29 +31004,29 @@
         <v>238</v>
       </c>
       <c r="B243" s="115" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C243" s="134" t="s">
         <v>1155</v>
       </c>
-      <c r="C243" s="134" t="s">
-        <v>1156</v>
-      </c>
       <c r="D243" s="145" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="E243" s="81" t="s">
         <v>683</v>
       </c>
       <c r="F243" s="57" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="G243" s="57"/>
       <c r="H243" s="62" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="I243" s="151" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="J243" s="61" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="K243" s="64" t="e">
         <f>IF(OR(#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y"),"Direct impact",IF(AND(#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="Y"),"Indirect impact","No impact"))</f>
@@ -31049,29 +31041,29 @@
         <v>239</v>
       </c>
       <c r="B244" s="115" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C244" s="134" t="s">
         <v>1158</v>
       </c>
-      <c r="C244" s="134" t="s">
-        <v>1159</v>
-      </c>
       <c r="D244" s="145" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="E244" s="81" t="s">
         <v>683</v>
       </c>
       <c r="F244" s="57" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="G244" s="57"/>
       <c r="H244" s="62" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="I244" s="63" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="J244" s="61" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="K244" s="64" t="e">
         <f>IF(OR(#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y"),"Direct impact",IF(AND(#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="Y"),"Indirect impact","No impact"))</f>
@@ -31086,26 +31078,26 @@
         <v>240</v>
       </c>
       <c r="B245" s="115" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C245" s="134" t="s">
         <v>1161</v>
       </c>
-      <c r="C245" s="134" t="s">
-        <v>1162</v>
-      </c>
       <c r="D245" s="145" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="E245" s="81" t="s">
         <v>683</v>
       </c>
       <c r="F245" s="57" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="G245" s="57"/>
       <c r="H245" s="62" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="I245" s="149" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="J245" s="61" t="s">
         <v>402</v>
@@ -31123,26 +31115,26 @@
         <v>241</v>
       </c>
       <c r="B246" s="115" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C246" s="134" t="s">
         <v>1164</v>
       </c>
-      <c r="C246" s="134" t="s">
-        <v>1165</v>
-      </c>
       <c r="D246" s="145" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="E246" s="81" t="s">
         <v>683</v>
       </c>
       <c r="F246" s="57" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="G246" s="57"/>
       <c r="H246" s="62" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="I246" s="147" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="J246" s="61" t="s">
         <v>348</v>
@@ -31160,29 +31152,29 @@
         <v>242</v>
       </c>
       <c r="B247" s="115" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C247" s="134" t="s">
         <v>1167</v>
       </c>
-      <c r="C247" s="134" t="s">
-        <v>1168</v>
-      </c>
       <c r="D247" s="145" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="E247" s="81" t="s">
         <v>683</v>
       </c>
       <c r="F247" s="57" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="G247" s="57"/>
       <c r="H247" s="62" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="I247" s="152" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="J247" s="61" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="K247" s="64" t="e">
         <f>IF(OR(#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y"),"Direct impact",IF(AND(#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="Y"),"Indirect impact","No impact"))</f>
@@ -31197,26 +31189,26 @@
         <v>243</v>
       </c>
       <c r="B248" s="115" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C248" s="134" t="s">
         <v>1170</v>
       </c>
-      <c r="C248" s="134" t="s">
-        <v>1171</v>
-      </c>
       <c r="D248" s="145" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="E248" s="81" t="s">
         <v>683</v>
       </c>
       <c r="F248" s="57" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="G248" s="57"/>
       <c r="H248" s="62" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="I248" s="63" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="J248" s="61" t="s">
         <v>423</v>
@@ -31234,13 +31226,13 @@
         <v>244</v>
       </c>
       <c r="B249" s="153" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C249" s="154" t="s">
         <v>1173</v>
       </c>
-      <c r="C249" s="154" t="s">
+      <c r="D249" s="153" t="s">
         <v>1174</v>
-      </c>
-      <c r="D249" s="153" t="s">
-        <v>1175</v>
       </c>
       <c r="E249" s="101" t="s">
         <v>157</v>
@@ -31250,34 +31242,34 @@
       </c>
       <c r="G249" s="101"/>
       <c r="H249" s="153" t="s">
+        <v>1175</v>
+      </c>
+      <c r="I249" s="101" t="s">
         <v>1176</v>
       </c>
-      <c r="I249" s="101" t="s">
+      <c r="J249" s="101" t="s">
         <v>1177</v>
-      </c>
-      <c r="J249" s="101" t="s">
-        <v>1178</v>
       </c>
       <c r="K249" s="153"/>
       <c r="L249" s="155"/>
       <c r="M249" s="156"/>
       <c r="N249" s="157" t="s">
+        <v>1178</v>
+      </c>
+      <c r="O249" s="158" t="s">
+        <v>1173</v>
+      </c>
+      <c r="P249" s="159" t="s">
         <v>1179</v>
-      </c>
-      <c r="O249" s="158" t="s">
-        <v>1174</v>
-      </c>
-      <c r="P249" s="159" t="s">
-        <v>1180</v>
       </c>
       <c r="Q249" s="160" t="s">
         <v>683</v>
       </c>
       <c r="R249" s="161" t="s">
+        <v>1119</v>
+      </c>
+      <c r="S249" s="161" t="s">
         <v>1120</v>
-      </c>
-      <c r="S249" s="161" t="s">
-        <v>1121</v>
       </c>
       <c r="T249" s="162" t="s">
         <v>17</v>
@@ -31289,8 +31281,8 @@
         <f>IF(OR(#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y"),"Direct impact",IF(AND(#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="Y"),"Indirect impact","No impact"))</f>
         <v>#REF!</v>
       </c>
-      <c r="W249" s="258" t="s">
-        <v>1181</v>
+      <c r="W249" s="267" t="s">
+        <v>1180</v>
       </c>
     </row>
     <row r="250" spans="1:23" s="67" customFormat="1" ht="34.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -31298,48 +31290,48 @@
         <v>245</v>
       </c>
       <c r="B250" s="153" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C250" s="154" t="s">
         <v>1182</v>
       </c>
-      <c r="C250" s="154" t="s">
+      <c r="D250" s="153" t="s">
         <v>1183</v>
       </c>
-      <c r="D250" s="153" t="s">
+      <c r="E250" s="101" t="s">
         <v>1184</v>
       </c>
-      <c r="E250" s="101" t="s">
+      <c r="F250" s="101" t="s">
         <v>1185</v>
-      </c>
-      <c r="F250" s="101" t="s">
-        <v>1186</v>
       </c>
       <c r="G250" s="101"/>
       <c r="H250" s="153"/>
       <c r="I250" s="101" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="J250" s="101" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="K250" s="153"/>
       <c r="L250" s="155"/>
       <c r="M250" s="156"/>
       <c r="N250" s="157" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="O250" s="158" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="P250" s="159" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="Q250" s="160" t="s">
         <v>683</v>
       </c>
       <c r="R250" s="161" t="s">
+        <v>1119</v>
+      </c>
+      <c r="S250" s="161" t="s">
         <v>1120</v>
-      </c>
-      <c r="S250" s="161" t="s">
-        <v>1121</v>
       </c>
       <c r="T250" s="162" t="s">
         <v>17</v>
@@ -31351,59 +31343,59 @@
         <f>IF(OR(#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y"),"Direct impact",IF(AND(#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="Y"),"Indirect impact","No impact"))</f>
         <v>#REF!</v>
       </c>
-      <c r="W250" s="258"/>
+      <c r="W250" s="267"/>
     </row>
     <row r="251" spans="1:23" s="67" customFormat="1" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="57">
         <v>246</v>
       </c>
       <c r="B251" s="165" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C251" s="166" t="s">
         <v>1189</v>
       </c>
-      <c r="C251" s="166" t="s">
+      <c r="D251" s="167" t="s">
         <v>1190</v>
       </c>
-      <c r="D251" s="167" t="s">
+      <c r="E251" s="168" t="s">
         <v>1191</v>
-      </c>
-      <c r="E251" s="168" t="s">
-        <v>1192</v>
       </c>
       <c r="F251" s="168" t="s">
         <v>530</v>
       </c>
       <c r="G251" s="168"/>
       <c r="H251" s="167" t="s">
+        <v>1192</v>
+      </c>
+      <c r="I251" s="168" t="s">
         <v>1193</v>
       </c>
-      <c r="I251" s="168" t="s">
-        <v>1194</v>
-      </c>
       <c r="J251" s="168" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="K251" s="167"/>
       <c r="L251" s="168"/>
       <c r="M251" s="169" t="s">
+        <v>1194</v>
+      </c>
+      <c r="N251" s="157" t="s">
         <v>1195</v>
       </c>
-      <c r="N251" s="157" t="s">
-        <v>1196</v>
-      </c>
       <c r="O251" s="158" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="P251" s="159" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="Q251" s="160" t="s">
         <v>683</v>
       </c>
       <c r="R251" s="161" t="s">
+        <v>1119</v>
+      </c>
+      <c r="S251" s="161" t="s">
         <v>1120</v>
-      </c>
-      <c r="S251" s="161" t="s">
-        <v>1121</v>
       </c>
       <c r="T251" s="162" t="s">
         <v>17</v>
@@ -31415,17 +31407,17 @@
         <f>IF(OR(#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y"),"Direct impact",IF(AND(#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="Y"),"Indirect impact","No impact"))</f>
         <v>#REF!</v>
       </c>
-      <c r="W251" s="258"/>
+      <c r="W251" s="267"/>
     </row>
     <row r="252" spans="1:23" s="67" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="57">
         <v>247</v>
       </c>
       <c r="B252" s="170" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C252" s="171" t="s">
         <v>1197</v>
-      </c>
-      <c r="C252" s="171" t="s">
-        <v>1198</v>
       </c>
       <c r="D252" s="172"/>
       <c r="E252" s="135"/>
@@ -31448,10 +31440,10 @@
         <v>248</v>
       </c>
       <c r="B253" s="115" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C253" s="134" t="s">
         <v>1199</v>
-      </c>
-      <c r="C253" s="134" t="s">
-        <v>1200</v>
       </c>
       <c r="D253" s="145"/>
       <c r="E253" s="81"/>
@@ -31474,10 +31466,10 @@
         <v>249</v>
       </c>
       <c r="B254" s="115" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C254" s="134" t="s">
         <v>1201</v>
-      </c>
-      <c r="C254" s="134" t="s">
-        <v>1202</v>
       </c>
       <c r="D254" s="145"/>
       <c r="E254" s="81"/>
@@ -31500,10 +31492,10 @@
         <v>250</v>
       </c>
       <c r="B255" s="175" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C255" s="134" t="s">
         <v>1203</v>
-      </c>
-      <c r="C255" s="134" t="s">
-        <v>1204</v>
       </c>
       <c r="D255" s="176" t="s">
         <v>738</v>
@@ -31517,7 +31509,7 @@
       <c r="G255" s="57"/>
       <c r="H255" s="62"/>
       <c r="I255" s="81" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="J255" s="135" t="s">
         <v>417</v>
@@ -31535,10 +31527,10 @@
         <v>251</v>
       </c>
       <c r="B256" s="175" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C256" s="134" t="s">
         <v>1206</v>
-      </c>
-      <c r="C256" s="134" t="s">
-        <v>1207</v>
       </c>
       <c r="D256" s="176" t="s">
         <v>738</v>
@@ -31552,7 +31544,7 @@
       <c r="G256" s="57"/>
       <c r="H256" s="62"/>
       <c r="I256" s="81" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="J256" s="81" t="s">
         <v>429</v>
@@ -31570,29 +31562,29 @@
         <v>252</v>
       </c>
       <c r="B257" s="177" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C257" s="134" t="s">
         <v>1209</v>
       </c>
-      <c r="C257" s="134" t="s">
+      <c r="D257" s="175" t="s">
         <v>1210</v>
       </c>
-      <c r="D257" s="175" t="s">
+      <c r="E257" s="57" t="s">
         <v>1211</v>
-      </c>
-      <c r="E257" s="57" t="s">
-        <v>1212</v>
       </c>
       <c r="F257" s="57" t="s">
         <v>446</v>
       </c>
       <c r="G257" s="57"/>
       <c r="H257" s="57" t="s">
+        <v>886</v>
+      </c>
+      <c r="I257" s="81" t="s">
         <v>887</v>
       </c>
-      <c r="I257" s="81" t="s">
+      <c r="J257" s="81" t="s">
         <v>888</v>
-      </c>
-      <c r="J257" s="81" t="s">
-        <v>889</v>
       </c>
       <c r="K257" s="57"/>
       <c r="L257" s="57"/>
@@ -31604,10 +31596,10 @@
         <v>253</v>
       </c>
       <c r="B258" s="178" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C258" s="134" t="s">
         <v>1213</v>
-      </c>
-      <c r="C258" s="134" t="s">
-        <v>1214</v>
       </c>
       <c r="D258" s="176" t="s">
         <v>221</v>
@@ -31621,7 +31613,7 @@
       <c r="G258" s="57"/>
       <c r="H258" s="57"/>
       <c r="I258" s="81" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="J258" s="135" t="s">
         <v>417</v>
@@ -31629,7 +31621,7 @@
       <c r="K258" s="57"/>
       <c r="L258" s="57"/>
       <c r="M258" s="179" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="N258" s="86"/>
     </row>
@@ -31638,10 +31630,10 @@
         <v>254</v>
       </c>
       <c r="B259" s="178" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C259" s="134" t="s">
         <v>1216</v>
-      </c>
-      <c r="C259" s="134" t="s">
-        <v>1217</v>
       </c>
       <c r="D259" s="176" t="s">
         <v>221</v>
@@ -31655,7 +31647,7 @@
       <c r="G259" s="57"/>
       <c r="H259" s="57"/>
       <c r="I259" s="100" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="J259" s="93" t="s">
         <v>429</v>
@@ -31663,7 +31655,7 @@
       <c r="K259" s="57"/>
       <c r="L259" s="57"/>
       <c r="M259" s="179" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="N259" s="86"/>
     </row>
@@ -31672,10 +31664,10 @@
         <v>255</v>
       </c>
       <c r="B260" s="178" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C260" s="134" t="s">
         <v>1219</v>
-      </c>
-      <c r="C260" s="134" t="s">
-        <v>1220</v>
       </c>
       <c r="D260" s="176" t="s">
         <v>221</v>
@@ -31689,7 +31681,7 @@
       <c r="G260" s="57"/>
       <c r="H260" s="57"/>
       <c r="I260" s="81" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="J260" s="135" t="s">
         <v>436</v>
@@ -31697,7 +31689,7 @@
       <c r="K260" s="57"/>
       <c r="L260" s="57"/>
       <c r="M260" s="179" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="N260" s="86"/>
     </row>
@@ -31706,10 +31698,10 @@
         <v>256</v>
       </c>
       <c r="B261" s="178" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C261" s="134" t="s">
         <v>1223</v>
-      </c>
-      <c r="C261" s="134" t="s">
-        <v>1224</v>
       </c>
       <c r="D261" s="176" t="s">
         <v>221</v>
@@ -31723,20 +31715,20 @@
       <c r="G261" s="57"/>
       <c r="H261" s="57"/>
       <c r="I261" s="108" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="J261" s="109" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="K261" s="74" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="L261" s="74"/>
       <c r="M261" s="179" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="N261" s="180" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="262" spans="1:14" s="67" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.3">
@@ -31744,16 +31736,16 @@
         <v>257</v>
       </c>
       <c r="B262" s="175" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C262" s="134" t="s">
         <v>1227</v>
       </c>
-      <c r="C262" s="134" t="s">
+      <c r="D262" s="181" t="s">
         <v>1228</v>
       </c>
-      <c r="D262" s="181" t="s">
+      <c r="E262" s="61" t="s">
         <v>1229</v>
-      </c>
-      <c r="E262" s="61" t="s">
-        <v>1230</v>
       </c>
       <c r="F262" s="57" t="s">
         <v>446</v>
@@ -31778,29 +31770,29 @@
         <v>258</v>
       </c>
       <c r="B263" s="183" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C263" s="134" t="s">
         <v>1231</v>
       </c>
-      <c r="C263" s="134" t="s">
+      <c r="D263" s="181" t="s">
         <v>1232</v>
       </c>
-      <c r="D263" s="181" t="s">
+      <c r="E263" s="81" t="s">
         <v>1233</v>
       </c>
-      <c r="E263" s="81" t="s">
+      <c r="F263" s="57" t="s">
         <v>1234</v>
-      </c>
-      <c r="F263" s="57" t="s">
-        <v>1235</v>
       </c>
       <c r="G263" s="57"/>
       <c r="H263" s="62" t="s">
+        <v>1235</v>
+      </c>
+      <c r="I263" s="100" t="s">
         <v>1236</v>
       </c>
-      <c r="I263" s="100" t="s">
-        <v>1237</v>
-      </c>
       <c r="J263" s="93" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="K263" s="64" t="e">
         <f>IF(OR(#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y",#REF!="Y"),"Direct impact",IF(AND(#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="N",#REF!="Y"),"Indirect impact","No impact"))</f>
@@ -31815,13 +31807,13 @@
         <v>259</v>
       </c>
       <c r="B264" s="177" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C264" s="134" t="s">
         <v>1238</v>
       </c>
-      <c r="C264" s="134" t="s">
+      <c r="D264" s="175" t="s">
         <v>1239</v>
-      </c>
-      <c r="D264" s="175" t="s">
-        <v>1240</v>
       </c>
       <c r="E264" s="57" t="s">
         <v>733</v>
@@ -31831,13 +31823,13 @@
       </c>
       <c r="G264" s="57"/>
       <c r="H264" s="57" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="I264" s="81" t="s">
+        <v>887</v>
+      </c>
+      <c r="J264" s="81" t="s">
         <v>888</v>
-      </c>
-      <c r="J264" s="81" t="s">
-        <v>889</v>
       </c>
       <c r="K264" s="57"/>
       <c r="L264" s="57"/>
@@ -31849,13 +31841,13 @@
         <v>260</v>
       </c>
       <c r="B265" s="177" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C265" s="134" t="s">
         <v>1242</v>
       </c>
-      <c r="C265" s="134" t="s">
-        <v>1243</v>
-      </c>
       <c r="D265" s="175" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="E265" s="57" t="s">
         <v>733</v>
@@ -31865,13 +31857,13 @@
       </c>
       <c r="G265" s="57"/>
       <c r="H265" s="57" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="I265" s="81" t="s">
+        <v>887</v>
+      </c>
+      <c r="J265" s="81" t="s">
         <v>888</v>
-      </c>
-      <c r="J265" s="81" t="s">
-        <v>889</v>
       </c>
       <c r="K265" s="57"/>
       <c r="L265" s="57"/>
@@ -31883,10 +31875,10 @@
         <v>261</v>
       </c>
       <c r="B266" s="177" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C266" s="134" t="s">
         <v>1245</v>
-      </c>
-      <c r="C266" s="134" t="s">
-        <v>1246</v>
       </c>
       <c r="D266" s="175"/>
       <c r="E266" s="57"/>
@@ -31894,7 +31886,7 @@
       <c r="G266" s="62"/>
       <c r="H266" s="57"/>
       <c r="I266" s="81" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="J266" s="81" t="s">
         <v>768</v>
@@ -31909,10 +31901,10 @@
         <v>262</v>
       </c>
       <c r="B267" s="177" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C267" s="134" t="s">
         <v>1248</v>
-      </c>
-      <c r="C267" s="134" t="s">
-        <v>1249</v>
       </c>
       <c r="D267" s="175"/>
       <c r="E267" s="57"/>
@@ -31920,7 +31912,7 @@
       <c r="G267" s="62"/>
       <c r="H267" s="57"/>
       <c r="I267" s="81" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="J267" s="81" t="s">
         <v>797</v>
@@ -31935,13 +31927,13 @@
         <v>263</v>
       </c>
       <c r="B268" s="177" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C268" s="134" t="s">
         <v>1251</v>
       </c>
-      <c r="C268" s="134" t="s">
-        <v>1252</v>
-      </c>
       <c r="D268" s="175" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="E268" s="57" t="s">
         <v>16</v>
@@ -31951,13 +31943,13 @@
       </c>
       <c r="G268" s="57"/>
       <c r="H268" s="57" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="I268" s="81" t="s">
+        <v>887</v>
+      </c>
+      <c r="J268" s="81" t="s">
         <v>888</v>
-      </c>
-      <c r="J268" s="81" t="s">
-        <v>889</v>
       </c>
       <c r="K268" s="57"/>
       <c r="L268" s="57"/>
@@ -31969,13 +31961,13 @@
         <v>264</v>
       </c>
       <c r="B269" s="177" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C269" s="134" t="s">
         <v>1254</v>
       </c>
-      <c r="C269" s="134" t="s">
-        <v>1255</v>
-      </c>
       <c r="D269" s="175" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="E269" s="57" t="s">
         <v>16</v>
@@ -31985,13 +31977,13 @@
       </c>
       <c r="G269" s="57"/>
       <c r="H269" s="57" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="I269" s="81" t="s">
+        <v>887</v>
+      </c>
+      <c r="J269" s="81" t="s">
         <v>888</v>
-      </c>
-      <c r="J269" s="81" t="s">
-        <v>889</v>
       </c>
       <c r="K269" s="57"/>
       <c r="L269" s="57"/>
@@ -32003,13 +31995,13 @@
         <v>265</v>
       </c>
       <c r="B270" s="177" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C270" s="134" t="s">
         <v>1257</v>
       </c>
-      <c r="C270" s="134" t="s">
-        <v>1258</v>
-      </c>
       <c r="D270" s="175" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="E270" s="57" t="s">
         <v>16</v>
@@ -32019,13 +32011,13 @@
       </c>
       <c r="G270" s="57"/>
       <c r="H270" s="57" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="I270" s="81" t="s">
+        <v>887</v>
+      </c>
+      <c r="J270" s="81" t="s">
         <v>888</v>
-      </c>
-      <c r="J270" s="81" t="s">
-        <v>889</v>
       </c>
       <c r="K270" s="57"/>
       <c r="L270" s="57"/>
@@ -32037,13 +32029,13 @@
         <v>266</v>
       </c>
       <c r="B271" s="177" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C271" s="134" t="s">
         <v>1260</v>
       </c>
-      <c r="C271" s="134" t="s">
+      <c r="D271" s="175" t="s">
         <v>1261</v>
-      </c>
-      <c r="D271" s="175" t="s">
-        <v>1262</v>
       </c>
       <c r="E271" s="57" t="s">
         <v>16</v>
@@ -32053,13 +32045,13 @@
       </c>
       <c r="G271" s="57"/>
       <c r="H271" s="57" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="I271" s="81" t="s">
+        <v>887</v>
+      </c>
+      <c r="J271" s="81" t="s">
         <v>888</v>
-      </c>
-      <c r="J271" s="81" t="s">
-        <v>889</v>
       </c>
       <c r="K271" s="57"/>
       <c r="L271" s="57"/>
@@ -32071,13 +32063,13 @@
         <v>267</v>
       </c>
       <c r="B272" s="177" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C272" s="134" t="s">
         <v>1264</v>
       </c>
-      <c r="C272" s="134" t="s">
-        <v>1265</v>
-      </c>
       <c r="D272" s="175" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E272" s="57" t="s">
         <v>16</v>
@@ -32087,13 +32079,13 @@
       </c>
       <c r="G272" s="57"/>
       <c r="H272" s="57" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="I272" s="81" t="s">
+        <v>887</v>
+      </c>
+      <c r="J272" s="81" t="s">
         <v>888</v>
-      </c>
-      <c r="J272" s="81" t="s">
-        <v>889</v>
       </c>
       <c r="K272" s="57"/>
       <c r="L272" s="57"/>
@@ -32105,13 +32097,13 @@
         <v>268</v>
       </c>
       <c r="B273" s="177" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C273" s="134" t="s">
         <v>1267</v>
       </c>
-      <c r="C273" s="134" t="s">
-        <v>1268</v>
-      </c>
       <c r="D273" s="175" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E273" s="57" t="s">
         <v>16</v>
@@ -32121,13 +32113,13 @@
       </c>
       <c r="G273" s="57"/>
       <c r="H273" s="57" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="I273" s="81" t="s">
+        <v>887</v>
+      </c>
+      <c r="J273" s="81" t="s">
         <v>888</v>
-      </c>
-      <c r="J273" s="81" t="s">
-        <v>889</v>
       </c>
       <c r="K273" s="57"/>
       <c r="L273" s="57"/>
@@ -32139,13 +32131,13 @@
         <v>269</v>
       </c>
       <c r="B274" s="177" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C274" s="134" t="s">
         <v>1270</v>
       </c>
-      <c r="C274" s="134" t="s">
-        <v>1271</v>
-      </c>
       <c r="D274" s="175" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="E274" s="57" t="s">
         <v>16</v>
@@ -32155,13 +32147,13 @@
       </c>
       <c r="G274" s="57"/>
       <c r="H274" s="57" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="I274" s="81" t="s">
+        <v>887</v>
+      </c>
+      <c r="J274" s="81" t="s">
         <v>888</v>
-      </c>
-      <c r="J274" s="81" t="s">
-        <v>889</v>
       </c>
       <c r="K274" s="57"/>
       <c r="L274" s="57"/>
@@ -32173,13 +32165,13 @@
         <v>270</v>
       </c>
       <c r="B275" s="177" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C275" s="134" t="s">
         <v>1273</v>
       </c>
-      <c r="C275" s="134" t="s">
-        <v>1274</v>
-      </c>
       <c r="D275" s="175" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E275" s="57" t="s">
         <v>16</v>
@@ -32189,13 +32181,13 @@
       </c>
       <c r="G275" s="57"/>
       <c r="H275" s="57" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="I275" s="81" t="s">
+        <v>887</v>
+      </c>
+      <c r="J275" s="81" t="s">
         <v>888</v>
-      </c>
-      <c r="J275" s="81" t="s">
-        <v>889</v>
       </c>
       <c r="K275" s="57"/>
       <c r="L275" s="57"/>
@@ -32207,26 +32199,26 @@
         <v>271</v>
       </c>
       <c r="B276" s="177" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C276" s="134" t="s">
         <v>1276</v>
       </c>
-      <c r="C276" s="134" t="s">
+      <c r="D276" s="175" t="s">
         <v>1277</v>
       </c>
-      <c r="D276" s="175" t="s">
+      <c r="E276" s="57" t="s">
         <v>1278</v>
-      </c>
-      <c r="E276" s="57" t="s">
-        <v>1279</v>
       </c>
       <c r="F276" s="57" t="s">
         <v>678</v>
       </c>
       <c r="G276" s="57"/>
       <c r="H276" s="57" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="I276" s="81" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="J276" s="81" t="s">
         <v>352</v>
@@ -32241,26 +32233,26 @@
         <v>272</v>
       </c>
       <c r="B277" s="177" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C277" s="134" t="s">
         <v>1281</v>
       </c>
-      <c r="C277" s="134" t="s">
-        <v>1282</v>
-      </c>
       <c r="D277" s="175" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E277" s="57" t="s">
         <v>1278</v>
-      </c>
-      <c r="E277" s="57" t="s">
-        <v>1279</v>
       </c>
       <c r="F277" s="57" t="s">
         <v>678</v>
       </c>
       <c r="G277" s="57"/>
       <c r="H277" s="57" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="I277" s="81" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="J277" s="81" t="s">
         <v>381</v>
@@ -32275,26 +32267,26 @@
         <v>273</v>
       </c>
       <c r="B278" s="177" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C278" s="134" t="s">
         <v>1283</v>
       </c>
-      <c r="C278" s="134" t="s">
-        <v>1284</v>
-      </c>
       <c r="D278" s="175" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E278" s="57" t="s">
         <v>1278</v>
-      </c>
-      <c r="E278" s="57" t="s">
-        <v>1279</v>
       </c>
       <c r="F278" s="57" t="s">
         <v>678</v>
       </c>
       <c r="G278" s="57"/>
       <c r="H278" s="57" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="I278" s="81" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="J278" s="81" t="s">
         <v>673</v>
@@ -32309,23 +32301,23 @@
         <v>274</v>
       </c>
       <c r="B279" s="177" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C279" s="134" t="s">
         <v>1285</v>
       </c>
-      <c r="C279" s="134" t="s">
-        <v>1286</v>
-      </c>
       <c r="D279" s="175" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E279" s="57" t="s">
         <v>1278</v>
-      </c>
-      <c r="E279" s="57" t="s">
-        <v>1279</v>
       </c>
       <c r="F279" s="57" t="s">
         <v>678</v>
       </c>
       <c r="G279" s="57"/>
       <c r="H279" s="57" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="I279" s="81" t="s">
         <v>694</v>
@@ -32343,26 +32335,26 @@
         <v>275</v>
       </c>
       <c r="B280" s="177" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C280" s="134" t="s">
         <v>1287</v>
       </c>
-      <c r="C280" s="134" t="s">
-        <v>1288</v>
-      </c>
       <c r="D280" s="175" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E280" s="57" t="s">
         <v>1278</v>
-      </c>
-      <c r="E280" s="57" t="s">
-        <v>1279</v>
       </c>
       <c r="F280" s="57" t="s">
         <v>678</v>
       </c>
       <c r="G280" s="57"/>
       <c r="H280" s="57" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="I280" s="81" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="J280" s="81" t="s">
         <v>709</v>
@@ -32377,29 +32369,29 @@
         <v>276</v>
       </c>
       <c r="B281" s="177" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C281" s="134" t="s">
         <v>1289</v>
       </c>
-      <c r="C281" s="134" t="s">
-        <v>1290</v>
-      </c>
       <c r="D281" s="175" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E281" s="57" t="s">
         <v>1278</v>
-      </c>
-      <c r="E281" s="57" t="s">
-        <v>1279</v>
       </c>
       <c r="F281" s="57" t="s">
         <v>678</v>
       </c>
       <c r="G281" s="57"/>
       <c r="H281" s="57" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="I281" s="185" t="s">
+        <v>1068</v>
+      </c>
+      <c r="J281" s="81" t="s">
         <v>1069</v>
-      </c>
-      <c r="J281" s="81" t="s">
-        <v>1070</v>
       </c>
       <c r="K281" s="57"/>
       <c r="L281" s="184"/>
@@ -32411,13 +32403,13 @@
         <v>277</v>
       </c>
       <c r="B282" s="175" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C282" s="134" t="s">
         <v>1291</v>
       </c>
-      <c r="C282" s="134" t="s">
+      <c r="D282" s="175" t="s">
         <v>1292</v>
-      </c>
-      <c r="D282" s="175" t="s">
-        <v>1293</v>
       </c>
       <c r="E282" s="57" t="s">
         <v>445</v>
@@ -32427,7 +32419,7 @@
       </c>
       <c r="G282" s="57"/>
       <c r="H282" s="57" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="I282" s="80" t="s">
         <v>555</v>
@@ -32445,13 +32437,13 @@
         <v>278</v>
       </c>
       <c r="B283" s="175" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C283" s="134" t="s">
         <v>1295</v>
       </c>
-      <c r="C283" s="134" t="s">
+      <c r="D283" s="175" t="s">
         <v>1296</v>
-      </c>
-      <c r="D283" s="175" t="s">
-        <v>1297</v>
       </c>
       <c r="E283" s="57" t="s">
         <v>445</v>
@@ -32461,7 +32453,7 @@
       </c>
       <c r="G283" s="57"/>
       <c r="H283" s="57" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="I283" s="80" t="s">
         <v>555</v>
@@ -32479,13 +32471,13 @@
         <v>279</v>
       </c>
       <c r="B284" s="175" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C284" s="134" t="s">
         <v>1299</v>
       </c>
-      <c r="C284" s="134" t="s">
+      <c r="D284" s="175" t="s">
         <v>1300</v>
-      </c>
-      <c r="D284" s="175" t="s">
-        <v>1301</v>
       </c>
       <c r="E284" s="143" t="s">
         <v>537</v>
@@ -32495,7 +32487,7 @@
       </c>
       <c r="G284" s="57"/>
       <c r="H284" s="57" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="I284" s="80" t="s">
         <v>555</v>
@@ -32513,13 +32505,13 @@
         <v>280</v>
       </c>
       <c r="B285" s="175" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C285" s="134" t="s">
         <v>1303</v>
       </c>
-      <c r="C285" s="134" t="s">
-        <v>1304</v>
-      </c>
       <c r="D285" s="175" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="E285" s="143" t="s">
         <v>537</v>
@@ -32529,7 +32521,7 @@
       </c>
       <c r="G285" s="57"/>
       <c r="H285" s="57" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="I285" s="80" t="s">
         <v>555</v>
@@ -32547,13 +32539,13 @@
         <v>281</v>
       </c>
       <c r="B286" s="175" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C286" s="134" t="s">
         <v>1305</v>
       </c>
-      <c r="C286" s="134" t="s">
-        <v>1306</v>
-      </c>
       <c r="D286" s="175" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="E286" s="143" t="s">
         <v>537</v>
@@ -32563,7 +32555,7 @@
       </c>
       <c r="G286" s="57"/>
       <c r="H286" s="57" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="I286" s="80" t="s">
         <v>555</v>
@@ -32581,13 +32573,13 @@
         <v>282</v>
       </c>
       <c r="B287" s="175" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C287" s="134" t="s">
         <v>1307</v>
       </c>
-      <c r="C287" s="134" t="s">
-        <v>1308</v>
-      </c>
       <c r="D287" s="175" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="E287" s="143" t="s">
         <v>537</v>
@@ -32597,7 +32589,7 @@
       </c>
       <c r="G287" s="57"/>
       <c r="H287" s="57" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="I287" s="80" t="s">
         <v>555</v>
@@ -32615,13 +32607,13 @@
         <v>283</v>
       </c>
       <c r="B288" s="175" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C288" s="134" t="s">
         <v>1309</v>
       </c>
-      <c r="C288" s="134" t="s">
+      <c r="D288" s="175" t="s">
         <v>1310</v>
-      </c>
-      <c r="D288" s="175" t="s">
-        <v>1311</v>
       </c>
       <c r="E288" s="143" t="s">
         <v>537</v>
@@ -32631,7 +32623,7 @@
       </c>
       <c r="G288" s="57"/>
       <c r="H288" s="57" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="I288" s="80" t="s">
         <v>555</v>
@@ -32649,13 +32641,13 @@
         <v>284</v>
       </c>
       <c r="B289" s="175" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C289" s="134" t="s">
         <v>1313</v>
       </c>
-      <c r="C289" s="134" t="s">
-        <v>1314</v>
-      </c>
       <c r="D289" s="175" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="E289" s="143" t="s">
         <v>537</v>
@@ -32665,7 +32657,7 @@
       </c>
       <c r="G289" s="57"/>
       <c r="H289" s="57" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="I289" s="80" t="s">
         <v>555</v>
@@ -32683,13 +32675,13 @@
         <v>285</v>
       </c>
       <c r="B290" s="175" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C290" s="134" t="s">
         <v>1315</v>
       </c>
-      <c r="C290" s="134" t="s">
-        <v>1316</v>
-      </c>
       <c r="D290" s="175" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="E290" s="143" t="s">
         <v>537</v>
@@ -32699,7 +32691,7 @@
       </c>
       <c r="G290" s="57"/>
       <c r="H290" s="57" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="I290" s="80" t="s">
         <v>555</v>
@@ -32717,13 +32709,13 @@
         <v>286</v>
       </c>
       <c r="B291" s="175" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C291" s="134" t="s">
         <v>1317</v>
       </c>
-      <c r="C291" s="134" t="s">
-        <v>1318</v>
-      </c>
       <c r="D291" s="175" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="E291" s="143" t="s">
         <v>537</v>
@@ -32733,7 +32725,7 @@
       </c>
       <c r="G291" s="57"/>
       <c r="H291" s="57" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="I291" s="80" t="s">
         <v>555</v>
@@ -32751,13 +32743,13 @@
         <v>287</v>
       </c>
       <c r="B292" s="175" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C292" s="134" t="s">
         <v>1319</v>
       </c>
-      <c r="C292" s="134" t="s">
+      <c r="D292" s="175" t="s">
         <v>1320</v>
-      </c>
-      <c r="D292" s="175" t="s">
-        <v>1321</v>
       </c>
       <c r="E292" s="143" t="s">
         <v>537</v>
@@ -32785,13 +32777,13 @@
         <v>288</v>
       </c>
       <c r="B293" s="175" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C293" s="134" t="s">
         <v>1322</v>
       </c>
-      <c r="C293" s="134" t="s">
-        <v>1323</v>
-      </c>
       <c r="D293" s="175" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="E293" s="143" t="s">
         <v>537</v>
@@ -32819,13 +32811,13 @@
         <v>289</v>
       </c>
       <c r="B294" s="175" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C294" s="134" t="s">
         <v>1324</v>
       </c>
-      <c r="C294" s="134" t="s">
-        <v>1325</v>
-      </c>
       <c r="D294" s="175" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="E294" s="143" t="s">
         <v>537</v>
@@ -32853,13 +32845,13 @@
         <v>290</v>
       </c>
       <c r="B295" s="175" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C295" s="134" t="s">
         <v>1326</v>
       </c>
-      <c r="C295" s="134" t="s">
-        <v>1327</v>
-      </c>
       <c r="D295" s="175" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="E295" s="143" t="s">
         <v>537</v>
@@ -32887,19 +32879,19 @@
         <v>291</v>
       </c>
       <c r="B296" s="183" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C296" s="134" t="s">
         <v>1328</v>
       </c>
-      <c r="C296" s="134" t="s">
+      <c r="D296" s="175" t="s">
         <v>1329</v>
       </c>
-      <c r="D296" s="175" t="s">
+      <c r="E296" s="57" t="s">
         <v>1330</v>
       </c>
-      <c r="E296" s="57" t="s">
+      <c r="F296" s="57" t="s">
         <v>1331</v>
-      </c>
-      <c r="F296" s="57" t="s">
-        <v>1332</v>
       </c>
       <c r="G296" s="57"/>
       <c r="H296" s="57"/>
@@ -32919,34 +32911,34 @@
         <v>292</v>
       </c>
       <c r="B297" s="186" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C297" s="187" t="s">
         <v>1333</v>
       </c>
-      <c r="C297" s="187" t="s">
+      <c r="D297" s="186" t="s">
         <v>1334</v>
       </c>
-      <c r="D297" s="186" t="s">
+      <c r="E297" s="188" t="s">
         <v>1335</v>
-      </c>
-      <c r="E297" s="188" t="s">
-        <v>1336</v>
       </c>
       <c r="F297" s="121" t="s">
         <v>538</v>
       </c>
       <c r="G297" s="121"/>
       <c r="H297" s="121" t="s">
+        <v>1336</v>
+      </c>
+      <c r="I297" s="189" t="s">
         <v>1337</v>
       </c>
-      <c r="I297" s="189" t="s">
+      <c r="J297" s="189" t="s">
         <v>1338</v>
-      </c>
-      <c r="J297" s="189" t="s">
-        <v>1339</v>
       </c>
       <c r="K297" s="121"/>
       <c r="L297" s="190"/>
       <c r="M297" s="191" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="N297" s="192"/>
     </row>
@@ -32955,10 +32947,10 @@
         <v>293</v>
       </c>
       <c r="B298" s="194" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C298" s="195" t="s">
         <v>1341</v>
-      </c>
-      <c r="C298" s="195" t="s">
-        <v>1342</v>
       </c>
       <c r="D298" s="196" t="s">
         <v>17</v>
@@ -32974,7 +32966,7 @@
         <v>17</v>
       </c>
       <c r="I298" s="197" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="J298" s="198" t="s">
         <v>429</v>
@@ -32985,7 +32977,7 @@
       </c>
       <c r="L298" s="57"/>
       <c r="M298" s="89" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="N298" s="86"/>
     </row>
@@ -32994,23 +32986,23 @@
         <v>294</v>
       </c>
       <c r="B299" s="183" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C299" s="200" t="s">
         <v>1345</v>
       </c>
-      <c r="C299" s="200" t="s">
+      <c r="D299" s="181" t="s">
         <v>1346</v>
       </c>
-      <c r="D299" s="181" t="s">
-        <v>1347</v>
-      </c>
       <c r="E299" s="61" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="F299" s="57" t="s">
         <v>368</v>
       </c>
       <c r="G299" s="57"/>
       <c r="H299" s="57" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="I299" s="201" t="s">
         <v>555</v>
@@ -33024,7 +33016,7 @@
       </c>
       <c r="L299" s="202"/>
       <c r="M299" s="89" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="N299" s="203"/>
     </row>
@@ -33033,23 +33025,23 @@
         <v>295</v>
       </c>
       <c r="B300" s="183" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C300" s="200" t="s">
         <v>1349</v>
       </c>
-      <c r="C300" s="200" t="s">
-        <v>1350</v>
-      </c>
       <c r="D300" s="181" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="E300" s="61" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="F300" s="57" t="s">
         <v>368</v>
       </c>
       <c r="G300" s="57"/>
       <c r="H300" s="57" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="I300" s="201" t="s">
         <v>555</v>
@@ -33063,7 +33055,7 @@
       </c>
       <c r="L300" s="202"/>
       <c r="M300" s="89" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="N300" s="203"/>
     </row>
@@ -33072,23 +33064,23 @@
         <v>296</v>
       </c>
       <c r="B301" s="175" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C301" s="134" t="s">
         <v>1351</v>
-      </c>
-      <c r="C301" s="134" t="s">
-        <v>1352</v>
       </c>
       <c r="D301" s="175" t="s">
         <v>17</v>
       </c>
       <c r="E301" s="57" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="F301" s="57" t="s">
         <v>446</v>
       </c>
       <c r="G301" s="57"/>
       <c r="H301" s="57" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="I301" s="81" t="s">
         <v>17</v>
@@ -33101,7 +33093,7 @@
       </c>
       <c r="L301" s="184"/>
       <c r="M301" s="205" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="N301" s="86"/>
     </row>
@@ -33110,26 +33102,26 @@
         <v>297</v>
       </c>
       <c r="B302" s="206" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C302" s="154" t="s">
         <v>1356</v>
       </c>
-      <c r="C302" s="154" t="s">
+      <c r="D302" s="206" t="s">
         <v>1357</v>
       </c>
-      <c r="D302" s="206" t="s">
+      <c r="E302" s="207" t="s">
         <v>1358</v>
       </c>
-      <c r="E302" s="207" t="s">
+      <c r="F302" s="101" t="s">
         <v>1359</v>
-      </c>
-      <c r="F302" s="101" t="s">
-        <v>1360</v>
       </c>
       <c r="G302" s="101"/>
       <c r="H302" s="208" t="s">
+        <v>1360</v>
+      </c>
+      <c r="I302" s="154" t="s">
         <v>1361</v>
-      </c>
-      <c r="I302" s="154" t="s">
-        <v>1362</v>
       </c>
       <c r="J302" s="209" t="s">
         <v>599</v>
@@ -33137,13 +33129,13 @@
       <c r="K302" s="101"/>
       <c r="L302" s="210"/>
       <c r="M302" s="211" t="s">
+        <v>1362</v>
+      </c>
+      <c r="N302" s="212" t="s">
         <v>1363</v>
       </c>
-      <c r="N302" s="212" t="s">
+      <c r="O302" s="128" t="s">
         <v>1364</v>
-      </c>
-      <c r="O302" s="128" t="s">
-        <v>1365</v>
       </c>
     </row>
     <row r="303" spans="1:15" s="67" customFormat="1" ht="51.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -33151,34 +33143,34 @@
         <v>298</v>
       </c>
       <c r="B303" s="165" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C303" s="166" t="s">
         <v>1366</v>
       </c>
-      <c r="C303" s="166" t="s">
-        <v>1367</v>
-      </c>
       <c r="D303" s="167" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E303" s="168" t="s">
         <v>1191</v>
-      </c>
-      <c r="E303" s="168" t="s">
-        <v>1192</v>
       </c>
       <c r="F303" s="168" t="s">
         <v>530</v>
       </c>
       <c r="G303" s="168"/>
       <c r="H303" s="167" t="s">
+        <v>1192</v>
+      </c>
+      <c r="I303" s="168" t="s">
         <v>1193</v>
       </c>
-      <c r="I303" s="168" t="s">
-        <v>1194</v>
-      </c>
       <c r="J303" s="168" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="K303" s="57"/>
       <c r="L303" s="184"/>
       <c r="M303" s="214" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="N303" s="86"/>
     </row>
@@ -33187,34 +33179,34 @@
         <v>299</v>
       </c>
       <c r="B304" s="215" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C304" s="197" t="s">
         <v>1369</v>
       </c>
-      <c r="C304" s="197" t="s">
-        <v>1370</v>
-      </c>
       <c r="D304" s="153" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E304" s="101" t="s">
         <v>1278</v>
-      </c>
-      <c r="E304" s="101" t="s">
-        <v>1279</v>
       </c>
       <c r="F304" s="101" t="s">
         <v>678</v>
       </c>
       <c r="G304" s="101"/>
       <c r="H304" s="101" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="I304" s="101" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="J304" s="197" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="K304" s="101"/>
       <c r="L304" s="210"/>
       <c r="M304" s="214" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="N304" s="212"/>
     </row>
@@ -33223,34 +33215,34 @@
         <v>300</v>
       </c>
       <c r="B305" s="153" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C305" s="197" t="s">
         <v>1373</v>
       </c>
-      <c r="C305" s="197" t="s">
+      <c r="D305" s="216" t="s">
         <v>1374</v>
       </c>
-      <c r="D305" s="216" t="s">
+      <c r="E305" s="217" t="s">
         <v>1375</v>
-      </c>
-      <c r="E305" s="217" t="s">
-        <v>1376</v>
       </c>
       <c r="F305" s="217" t="s">
         <v>538</v>
       </c>
       <c r="G305" s="217"/>
       <c r="H305" s="217" t="s">
+        <v>1376</v>
+      </c>
+      <c r="I305" s="218" t="s">
         <v>1377</v>
       </c>
-      <c r="I305" s="218" t="s">
-        <v>1378</v>
-      </c>
       <c r="J305" s="219" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="K305" s="220"/>
       <c r="L305" s="184"/>
       <c r="M305" s="214" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="N305" s="86"/>
     </row>
@@ -33259,22 +33251,22 @@
         <v>301</v>
       </c>
       <c r="B306" s="221" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C306" s="197" t="s">
         <v>1380</v>
       </c>
-      <c r="C306" s="197" t="s">
+      <c r="D306" s="222" t="s">
         <v>1381</v>
       </c>
-      <c r="D306" s="222" t="s">
+      <c r="E306" s="97" t="s">
         <v>1382</v>
-      </c>
-      <c r="E306" s="97" t="s">
-        <v>1383</v>
       </c>
       <c r="F306" s="223"/>
       <c r="G306" s="223"/>
       <c r="H306" s="224"/>
       <c r="I306" s="81" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="J306" s="81" t="s">
         <v>423</v>
@@ -33282,10 +33274,10 @@
       <c r="K306" s="224"/>
       <c r="L306" s="224"/>
       <c r="M306" s="225" t="s">
+        <v>1384</v>
+      </c>
+      <c r="N306" s="86" t="s">
         <v>1385</v>
-      </c>
-      <c r="N306" s="86" t="s">
-        <v>1386</v>
       </c>
     </row>
     <row r="307" spans="1:14" s="226" customFormat="1" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -33293,10 +33285,10 @@
         <v>302</v>
       </c>
       <c r="B307" s="221" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C307" s="197" t="s">
         <v>1387</v>
-      </c>
-      <c r="C307" s="197" t="s">
-        <v>1388</v>
       </c>
       <c r="D307" s="222"/>
       <c r="E307" s="97"/>
@@ -33309,7 +33301,7 @@
       <c r="L307" s="224"/>
       <c r="M307" s="225"/>
       <c r="N307" s="86" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="308" spans="1:14" s="226" customFormat="1" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -33317,26 +33309,26 @@
         <v>303</v>
       </c>
       <c r="B308" s="165" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C308" s="228" t="s">
         <v>1390</v>
       </c>
-      <c r="C308" s="228" t="s">
-        <v>1391</v>
-      </c>
       <c r="D308" s="165" t="s">
+        <v>1357</v>
+      </c>
+      <c r="E308" s="229" t="s">
         <v>1358</v>
       </c>
-      <c r="E308" s="229" t="s">
+      <c r="F308" s="227" t="s">
         <v>1359</v>
-      </c>
-      <c r="F308" s="227" t="s">
-        <v>1360</v>
       </c>
       <c r="G308" s="227"/>
       <c r="H308" s="230" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="I308" s="228" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="J308" s="231" t="s">
         <v>625</v>
@@ -33345,7 +33337,7 @@
       <c r="L308" s="168"/>
       <c r="M308" s="232"/>
       <c r="N308" s="233" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="309" spans="1:14" s="226" customFormat="1" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -33353,26 +33345,26 @@
         <v>304</v>
       </c>
       <c r="B309" s="165" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C309" s="228" t="s">
         <v>1394</v>
       </c>
-      <c r="C309" s="228" t="s">
-        <v>1395</v>
-      </c>
       <c r="D309" s="165" t="s">
+        <v>1357</v>
+      </c>
+      <c r="E309" s="229" t="s">
         <v>1358</v>
       </c>
-      <c r="E309" s="229" t="s">
+      <c r="F309" s="227" t="s">
         <v>1359</v>
-      </c>
-      <c r="F309" s="227" t="s">
-        <v>1360</v>
       </c>
       <c r="G309" s="227"/>
       <c r="H309" s="230" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="I309" s="228" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="J309" s="231" t="s">
         <v>649</v>
@@ -33381,7 +33373,7 @@
       <c r="L309" s="168"/>
       <c r="M309" s="232"/>
       <c r="N309" s="233" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="310" spans="1:14" s="235" customFormat="1" x14ac:dyDescent="0.3">
@@ -34570,12 +34562,6 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="22">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:M3"/>
     <mergeCell ref="W249:W251"/>
     <mergeCell ref="I58:I59"/>
     <mergeCell ref="J58:J59"/>
@@ -34592,6 +34578,12 @@
     <mergeCell ref="J47:J52"/>
     <mergeCell ref="I56:I57"/>
     <mergeCell ref="J56:J57"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:M3"/>
   </mergeCells>
   <conditionalFormatting sqref="K83:K110 K112:K113 K115:K152 K262:K263 K6:K81 K306:K307 K219:K248 K252:K256 V249:V251">
     <cfRule type="expression" dxfId="420" priority="417">
@@ -36263,7 +36255,7 @@
       </c>
       <c r="B3" s="251"/>
       <c r="C3" s="280" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="D3" s="280"/>
       <c r="E3" s="280"/>
@@ -36339,16 +36331,16 @@
         <v>1</v>
       </c>
       <c r="B6" s="43" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C6" s="25" t="s">
         <v>1398</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="D6" s="25" t="s">
         <v>1399</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="E6" s="243" t="s">
         <v>1400</v>
-      </c>
-      <c r="E6" s="243" t="s">
-        <v>1401</v>
       </c>
       <c r="F6" s="243" t="s">
         <v>733</v>
@@ -36360,10 +36352,10 @@
         <v>17</v>
       </c>
       <c r="I6" s="244" t="s">
+        <v>1401</v>
+      </c>
+      <c r="J6" s="21" t="s">
         <v>1402</v>
-      </c>
-      <c r="J6" s="21" t="s">
-        <v>1403</v>
       </c>
       <c r="K6" s="245" t="s">
         <v>88</v>
@@ -36378,16 +36370,16 @@
         <v>2</v>
       </c>
       <c r="B7" s="43" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C7" s="25" t="s">
         <v>1404</v>
       </c>
-      <c r="C7" s="25" t="s">
-        <v>1405</v>
-      </c>
       <c r="D7" s="25" t="s">
+        <v>1399</v>
+      </c>
+      <c r="E7" s="243" t="s">
         <v>1400</v>
-      </c>
-      <c r="E7" s="243" t="s">
-        <v>1401</v>
       </c>
       <c r="F7" s="243" t="s">
         <v>733</v>
@@ -36399,10 +36391,10 @@
         <v>17</v>
       </c>
       <c r="I7" s="244" t="s">
+        <v>1401</v>
+      </c>
+      <c r="J7" s="21" t="s">
         <v>1402</v>
-      </c>
-      <c r="J7" s="21" t="s">
-        <v>1403</v>
       </c>
       <c r="K7" s="245" t="s">
         <v>88</v>
@@ -36417,16 +36409,16 @@
         <v>3</v>
       </c>
       <c r="B8" s="43" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C8" s="25" t="s">
         <v>1406</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="D8" s="243" t="s">
         <v>1407</v>
       </c>
-      <c r="D8" s="243" t="s">
+      <c r="E8" s="243" t="s">
         <v>1408</v>
-      </c>
-      <c r="E8" s="243" t="s">
-        <v>1409</v>
       </c>
       <c r="F8" s="243" t="s">
         <v>538</v>
@@ -36438,10 +36430,10 @@
         <v>17</v>
       </c>
       <c r="I8" s="244" t="s">
+        <v>1409</v>
+      </c>
+      <c r="J8" s="21" t="s">
         <v>1410</v>
-      </c>
-      <c r="J8" s="21" t="s">
-        <v>1411</v>
       </c>
       <c r="K8" s="245" t="s">
         <v>88</v>
@@ -36456,34 +36448,34 @@
         <v>4</v>
       </c>
       <c r="B9" s="43" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C9" s="25" t="s">
         <v>1412</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="D9" s="25" t="s">
         <v>1413</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="E9" s="243" t="s">
         <v>1414</v>
       </c>
-      <c r="E9" s="243" t="s">
+      <c r="F9" s="243" t="s">
         <v>1415</v>
-      </c>
-      <c r="F9" s="243" t="s">
-        <v>1416</v>
       </c>
       <c r="G9" s="26">
         <v>161019</v>
       </c>
       <c r="H9" s="20" t="s">
+        <v>1416</v>
+      </c>
+      <c r="I9" s="244" t="s">
         <v>1417</v>
       </c>
-      <c r="I9" s="244" t="s">
+      <c r="J9" s="21" t="s">
         <v>1418</v>
       </c>
-      <c r="J9" s="21" t="s">
+      <c r="K9" s="245" t="s">
         <v>1419</v>
-      </c>
-      <c r="K9" s="245" t="s">
-        <v>1420</v>
       </c>
       <c r="L9" s="246"/>
       <c r="M9" s="26" t="s">
@@ -36495,34 +36487,34 @@
         <v>5</v>
       </c>
       <c r="B10" s="43" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C10" s="25" t="s">
         <v>1421</v>
       </c>
-      <c r="C10" s="25" t="s">
-        <v>1422</v>
-      </c>
       <c r="D10" s="25" t="s">
+        <v>1413</v>
+      </c>
+      <c r="E10" s="243" t="s">
         <v>1414</v>
       </c>
-      <c r="E10" s="243" t="s">
+      <c r="F10" s="243" t="s">
         <v>1415</v>
-      </c>
-      <c r="F10" s="243" t="s">
-        <v>1416</v>
       </c>
       <c r="G10" s="26">
         <v>161020</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="I10" s="244" t="s">
+        <v>1422</v>
+      </c>
+      <c r="J10" s="21" t="s">
         <v>1423</v>
       </c>
-      <c r="J10" s="21" t="s">
-        <v>1424</v>
-      </c>
       <c r="K10" s="245" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="L10" s="246"/>
       <c r="M10" s="26" t="s">
@@ -36534,34 +36526,34 @@
         <v>6</v>
       </c>
       <c r="B11" s="43" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C11" s="25" t="s">
         <v>1425</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>1426</v>
       </c>
       <c r="D11" s="25" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="243" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="F11" s="243" t="s">
         <v>538</v>
       </c>
       <c r="G11" s="26" t="s">
+        <v>1427</v>
+      </c>
+      <c r="H11" s="20" t="s">
         <v>1428</v>
       </c>
-      <c r="H11" s="20" t="s">
-        <v>1429</v>
-      </c>
       <c r="I11" s="247" t="s">
+        <v>1417</v>
+      </c>
+      <c r="J11" s="248" t="s">
         <v>1418</v>
       </c>
-      <c r="J11" s="248" t="s">
+      <c r="K11" s="245" t="s">
         <v>1419</v>
-      </c>
-      <c r="K11" s="245" t="s">
-        <v>1420</v>
       </c>
       <c r="L11" s="246"/>
       <c r="M11" s="26" t="s">
@@ -36573,34 +36565,34 @@
         <v>7</v>
       </c>
       <c r="B12" s="43" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C12" s="25" t="s">
         <v>1430</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>1431</v>
       </c>
       <c r="D12" s="25" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="243" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="F12" s="243" t="s">
         <v>538</v>
       </c>
       <c r="G12" s="26" t="s">
+        <v>1432</v>
+      </c>
+      <c r="H12" s="20" t="s">
         <v>1433</v>
       </c>
-      <c r="H12" s="20" t="s">
+      <c r="I12" s="247" t="s">
         <v>1434</v>
       </c>
-      <c r="I12" s="247" t="s">
+      <c r="J12" s="248" t="s">
         <v>1435</v>
       </c>
-      <c r="J12" s="248" t="s">
-        <v>1436</v>
-      </c>
       <c r="K12" s="245" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="L12" s="246"/>
       <c r="M12" s="26" t="s">
@@ -36612,10 +36604,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="43" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C13" s="25" t="s">
         <v>1437</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>1438</v>
       </c>
       <c r="D13" s="243" t="s">
         <v>683</v>
@@ -36624,7 +36616,7 @@
         <v>17</v>
       </c>
       <c r="F13" s="243" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="G13" s="26" t="s">
         <v>17</v>
@@ -36633,10 +36625,10 @@
         <v>17</v>
       </c>
       <c r="I13" s="247" t="s">
+        <v>1434</v>
+      </c>
+      <c r="J13" s="248" t="s">
         <v>1435</v>
-      </c>
-      <c r="J13" s="248" t="s">
-        <v>1436</v>
       </c>
       <c r="K13" s="245" t="s">
         <v>159</v>
